--- a/Combined_datasets/14-OM-datasets/P_labels_oversample_50%_total_dataset /12_OM_50/newlabel/2-OM-test-set.xlsx
+++ b/Combined_datasets/14-OM-datasets/P_labels_oversample_50%_total_dataset /12_OM_50/newlabel/2-OM-test-set.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/Combined_datasets/14-OM-datasets/unseen/12-OM-train-3-OM(decider)-test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/Combined_datasets/14-OM-datasets/P_labels_oversample_50%_total_dataset /12_OM_50/newlabel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A399E4A2-8E09-374F-A587-8FA6B9CA3EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F23B43-EB89-E748-8388-18694D438E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16320" xr2:uid="{C571DF1E-96F1-4C4B-9943-E555245EFDA2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{C571DF1E-96F1-4C4B-9943-E555245EFDA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,319 +38,319 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="105">
   <si>
-    <t>moduleOM_name:0,openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_type,onesigclass2_nameextendsClassattrSet=c2_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc2_at1extendsc2_at1_type,onesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at1extendsc3_at1_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigc3_at5extendsc3_at5_type,onesigclass4_nameextendsClassattrSet=c4_at1+c4_at2id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_type,onesigclass5_nameextendsClassattrSet=c5_at1+c3_at1id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_type,onesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_type,onesigclass7_nameextendsClassattrSet=c7_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc7_at1extendsc7_at1_type,onesigassoc1extendsAssociationsrc=class6_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc2extendsAssociationsrc=class6_namedst=Customersrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociationsrc=class3_namedst=class4_name,src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigassoc4extendsAssociationsrc=class3_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociation{}{src=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}predshowrunshow​,TableName:class5_nameTableName:class8_nameTableName:class7_nameTableName:class1_nameTableName:class3_nameTableName:class4_nameTableName:class6_nameTableclass1_name:Attributec1_at1PrimaryKeyTableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1PrimaryKeyTableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1PrimaryKeyTableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1PrimaryKeyTableclass4_name:Attributec4_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyMappingStrategyforclass8_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc5:assoc_type1AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`class5_name`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_class5_name_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c5_at1`),);CREATETABLE`class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`),);CREATETABLE`class1_name`(`c1_at2`c4_at2_type(64)`c3_at1`c3_at2_type`c1_at1`c1_at1_typeKEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`),);CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c6_at1`c6_at1_type`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_typeKEY`FK_class3_name_c6_at1_idx`(`c6_at1`)PRIMARYKEY(`c3_at1`),);CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64)`c6_at1`c6_at1_type`c4_at1`c4_at1_typeNOTNULLKEY`FK_class4_name_c6_at1_idx`(`c6_at1`)PRIMARYKEY(`c4_at1`),);CREATETABLE`assoc3`(`c4_at1`c4_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc3_c4_at1_idx`(`c4_at1`)KEY`FK_assoc3_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c4_at1`,`c3_at1`),);CREATETABLE`class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_typePRIMARYKEY(`c3_at1`),);ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`class4_name`ADDCONSTRAINT`FK_class4_name_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,​</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0,openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_type,onesigclass2_nameextendsClassattrSet=c2_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc2_at1extendsc2_at1_type,onesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at1extendsc3_at1_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigc3_at5extendsc3_at5_type,onesigclass4_nameextendsClassattrSet=c4_at1+c4_at2id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_type,onesigclass5_nameextendsClassattrSet=c5_at1+c3_at1id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_type,onesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_type,onesigclass7_nameextendsClassattrSet=c7_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc7_at1extendsc7_at1_type,onesigassoc1extendsAssociationsrc=class6_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc2extendsAssociationsrc=class6_namedst=Customersrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociationsrc=class3_namedst=class4_name,src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigassoc4extendsAssociationsrc=class3_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociation{}{src=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}predshowrunshow​,Tableclass1_name:Attributec1_at1PrimaryKeyTableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1PrimaryKeyTableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1PrimaryKeyTableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1PrimaryKeyTableclass4_name:Attributec4_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyMappingStrategyforclass8_name:map_str2MappingStrategyforclass5_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc5:assoc_type1AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`class5_name`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typePRIMARYKEY(`c5_at1`),);CREATETABLE`class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`),);CREATETABLE`class1_name`(`c1_at2`c4_at2_type(64)`c3_at1`c3_at2_type`c1_at1`c1_at1_typeKEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`),);CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c6_at1`c6_at1_type`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_typeKEY`FK_class3_name_c6_at1_idx`(`c6_at1`)PRIMARYKEY(`c3_at1`),);CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64)`c6_at1`c6_at1_type`c4_at1`c4_at1_typeNOTNULLKEY`FK_class4_name_c6_at1_idx`(`c6_at1`)PRIMARYKEY(`c4_at1`),);CREATETABLE`assoc3`(`c4_at1`c4_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc3_c4_at1_idx`(`c4_at1`)KEY`FK_assoc3_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c4_at1`,`c3_at1`),);CREATETABLE`assoc4`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc4_c5_at1_idx`(`c5_at1`)KEY`FK_assoc4_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c5_at1`,`c3_at1`));CREATETABLE`class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_typePRIMARYKEY(`c3_at1`),);ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`class4_name`ADDCONSTRAINT`FK_class4_name_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0,openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_type,onesigclass2_nameextendsClassattrSet=c2_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc2_at1extendsc2_at1_type,onesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at1extendsc3_at1_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigc3_at5extendsc3_at5_type,onesigclass4_nameextendsClassattrSet=c4_at1+c4_at2id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_type,onesigclass5_nameextendsClassattrSet=c5_at1+c3_at1id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_type,onesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_type,onesigclass7_nameextendsClassattrSet=c7_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc7_at1extendsc7_at1_type,onesigassoc1extendsAssociationsrc=class6_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc2extendsAssociationsrc=class6_namedst=Customersrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociationsrc=class3_namedst=class4_name,src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigassoc4extendsAssociationsrc=class3_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociation{}{src=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}predshowrunshow​,Tableclass1_name:Attributec1_at1PrimaryKeyTableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1PrimaryKeyTableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1PrimaryKeyTableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1PrimaryKeyTableclass4_name:Attributec4_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass1_name:map_str2MappingStrategyforclass8_name:map_str2MappingStrategyforclass3_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name_0CREATETABLE`class5_name`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_class5_name_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c5_at1`),);CREATETABLE`class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`),);CREATETABLE`class1_name`(`c1_at2`c4_at2_type(64)`c1_at1`c1_at1_typePRIMARYKEY(`c1_at1`),);CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c6_at1`c6_at1_type`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_typeKEY`FK_class3_name_c6_at1_idx`(`c6_at1`)PRIMARYKEY(`c3_at1`),);CREATETABLE`assoc5`(`c3_at1`c3_at2_type`c1_at1`c1_at1_typeKEY`FK_assoc5_c3_at1_idx`(`c3_at1`)KEY`FK_assoc5_c1_at1_idx`(`c1_at1`)PRIMARYKEY(`c3_at1`,`c1_at1`),);CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64)`c6_at1`c6_at1_type`c4_at1`c4_at1_typeNOTNULLKEY`FK_class4_name_c6_at1_idx`(`c6_at1`)PRIMARYKEY(`c4_at1`),);CREATETABLE`assoc3`(`c4_at1`c4_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc3_c4_at1_idx`(`c4_at1`)KEY`FK_assoc3_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c4_at1`,`c3_at1`),);CREATETABLE`class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_typePRIMARYKEY(`c3_at1`),);ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`class4_name`ADDCONSTRAINT`FK_class4_name_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0,openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_type,onesigclass2_nameextendsClassattrSet=c2_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc2_at1extendsc2_at1_type,onesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at1extendsc3_at1_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigc3_at5extendsc3_at5_type,onesigclass4_nameextendsClassattrSet=c4_at1+c4_at2id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_type,onesigclass5_nameextendsClassattrSet=c5_at1+c3_at1id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_type,onesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_type,onesigclass7_nameextendsClassattrSet=c7_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc7_at1extendsc7_at1_type,onesigassoc1extendsAssociationsrc=class6_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc2extendsAssociationsrc=class6_namedst=Customersrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociationsrc=class3_namedst=class4_name,src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigassoc4extendsAssociationsrc=class3_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociation{}{src=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}predshowrunshow​,TableName:class5_nameTableName:class8_nameTableclass1_name:Attributec1_at1PrimaryKeyTableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1PrimaryKeyTableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1PrimaryKeyTableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1PrimaryKeyTableclass4_name:Attributec4_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyMappingStrategyforclass8_name:map_str2MappingStrategyforclass3_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc5:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`class5_name`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_class5_name_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c5_at1`),);CREATETABLE`class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`),);CREATETABLE`class1_name`(`c1_at2`c4_at2_type(64)`c3_at1`c3_at2_type`c1_at1`c1_at1_typeKEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`),);CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64)`c6_at1`c6_at1_type`c4_at1`c4_at1_typeNOTNULLKEY`FK_class4_name_c6_at1_idx`(`c6_at1`)PRIMARYKEY(`c4_at1`),);CREATETABLE`assoc2`(`c6_at1`c6_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc2_c6_at1_idx`(`c6_at1`),KEY`FK_assoc2_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c6_at1`,`c3_at1`));CREATETABLE`assoc3`(`c4_at1`c4_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc3_c4_at1_idx`(`c4_at1`)KEY`FK_assoc3_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c4_at1`,`c3_at1`),);CREATETABLE`class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_typePRIMARYKEY(`c3_at1`),);ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`class4_name`ADDCONSTRAINT`FK_class4_name_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0,openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_type,onesigclass2_nameextendsClassattrSet=c2_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc2_at1extendsc2_at1_type,onesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at1extendsc3_at1_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigc3_at5extendsc3_at5_type,onesigclass4_nameextendsClassattrSet=c4_at1+c4_at2id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_type,onesigclass5_nameextendsClassattrSet=c5_at1+c3_at1id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_type,onesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_type,onesigclass7_nameextendsClassattrSet=c7_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc7_at1extendsc7_at1_type,onesigassoc1extendsAssociationsrc=class6_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc2extendsAssociationsrc=class6_namedst=Customersrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociationsrc=class3_namedst=class4_name,src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigassoc4extendsAssociationsrc=class3_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociation{}{src=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}predshowrunshow​,TableName:class5_nameTableName:class8_nameTableclass1_name:Attributec1_at1PrimaryKeyTableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1PrimaryKeyTableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1PrimaryKeyTableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1PrimaryKeyTableclass4_name:Attributec4_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyMappingStrategyforclass8_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc5:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`class5_name`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_class5_name_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c5_at1`),);CREATETABLE`class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`),);CREATETABLE`class1_name`(`c1_at2`c4_at2_type(64)`c3_at1`c3_at2_type`c1_at1`c1_at1_typeKEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`),);CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c6_at1`c6_at1_type`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_typeKEY`FK_class3_name_c6_at1_idx`(`c6_at1`)PRIMARYKEY(`c3_at1`),);CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64)`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`),);CREATETABLE`assoc3`(`c4_at1`c4_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc3_c4_at1_idx`(`c4_at1`)KEY`FK_assoc3_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c4_at1`,`c3_at1`),);CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc1_c6_at1_idx`(`c6_at1`),KEY`FK_assoc1_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c6_at1`,`c4_at1`),);CREATETABLE`class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_typePRIMARYKEY(`c3_at1`),);ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0,openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_type,onesigclass2_nameextendsClassattrSet=c2_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc2_at1extendsc2_at1_type,onesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at1extendsc3_at1_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigc3_at5extendsc3_at5_type,onesigclass4_nameextendsClassattrSet=c4_at1+c4_at2id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_type,onesigclass5_nameextendsClassattrSet=c5_at1+c3_at1id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_type,onesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_type,onesigclass7_nameextendsClassattrSet=c7_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc7_at1extendsc7_at1_type,onesigassoc1extendsAssociationsrc=class6_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc2extendsAssociationsrc=class6_namedst=Customersrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociationsrc=class3_namedst=class4_name,src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigassoc4extendsAssociationsrc=class3_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociation{}{src=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}predshowrunshow​,TableName:class5_nameTableName:class8_nameTableclass1_name:Attributec1_at1PrimaryKeyTableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1PrimaryKeyTableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1PrimaryKeyTableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1PrimaryKeyTableclass4_name:Attributec4_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyMappingStrategyforclass8_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc5:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2TableName:class5_nameTableclass1_name:Attributec1_at1PrimaryKeyTableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1PrimaryKeyTableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1PrimaryKeyTableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1PrimaryKeyTableclass4_name:Attributec4_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyMappingStrategyforclass8_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc5:assoc_type1AssociationStrategyforassoc3:assoc_type2​,USEOM_name_0CREATETABLE`class5_name`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_class5_name_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c5_at1`),);CREATETABLE`class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`),);CREATETABLE`class1_name`(`c1_at2`c4_at2_type(64)`c3_at1`c3_at2_type`c1_at1`c1_at1_typeKEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`),);CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c6_at1`c6_at1_type`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_typeKEY`FK_class3_name_c6_at1_idx`(`c6_at1`)PRIMARYKEY(`c3_at1`),);CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64)`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`),);CREATETABLE`assoc3`(`c4_at1`c4_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc3_c4_at1_idx`(`c4_at1`)KEY`FK_assoc3_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c4_at1`,`c3_at1`),);CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc1_c6_at1_idx`(`c6_at1`),KEY`FK_assoc1_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c6_at1`,`c4_at1`),);CREATETABLE`class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_typePRIMARYKEY(`c3_at1`),);ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0,openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_type,onesigclass2_nameextendsClassattrSet=c2_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc2_at1extendsc2_at1_type,onesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at1extendsc3_at1_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigc3_at5extendsc3_at5_type,onesigclass4_nameextendsClassattrSet=c4_at1+c4_at2id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_type,onesigclass5_nameextendsClassattrSet=c5_at1+c3_at1id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_type,onesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_type,onesigclass7_nameextendsClassattrSet=c7_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc7_at1extendsc7_at1_type,onesigassoc1extendsAssociationsrc=class6_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc2extendsAssociationsrc=class6_namedst=Customersrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociationsrc=class3_namedst=class4_name,src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigassoc4extendsAssociationsrc=class3_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociation{}{src=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}predshowrunshow​,TableName:class5_nameTableclass1_name:Attributec1_at1PrimaryKeyTableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1PrimaryKeyTableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1PrimaryKeyTableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1PrimaryKeyTableclass4_name:Attributec4_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyMappingStrategyforclass8_name:map_str2MappingStrategyforclass5_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc5:assoc_type1AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`class5_name`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typePRIMARYKEY(`c5_at1`),);CREATETABLE`class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`),);CREATETABLE`class1_name`(`c1_at2`c4_at2_type(64)`c3_at1`c3_at2_type`c1_at1`c1_at1_typeKEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`),);CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c6_at1`c6_at1_type`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_typeKEY`FK_class3_name_c6_at1_idx`(`c6_at1`)PRIMARYKEY(`c3_at1`),);CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64)`c6_at1`c6_at1_type`c4_at1`c4_at1_typeNOTNULLKEY`FK_class4_name_c6_at1_idx`(`c6_at1`)PRIMARYKEY(`c4_at1`),);CREATETABLE`assoc3`(`c4_at1`c4_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc3_c4_at1_idx`(`c4_at1`)KEY`FK_assoc3_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c4_at1`,`c3_at1`),);CREATETABLE`assoc4`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc4_c5_at1_idx`(`c5_at1`)KEY`FK_assoc4_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c5_at1`,`c3_at1`));CREATETABLE`class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_typePRIMARYKEY(`c3_at1`),);ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`class4_name`ADDCONSTRAINT`FK_class4_name_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,​</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0,openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_type,onesigclass2_nameextendsClassattrSet=c2_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc2_at1extendsc2_at1_type,onesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at1extendsc3_at1_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigc3_at5extendsc3_at5_type,onesigclass4_nameextendsClassattrSet=c4_at1+c4_at2id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_type,onesigclass5_nameextendsClassattrSet=c5_at1+c3_at1id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_type,onesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_type,onesigclass7_nameextendsClassattrSet=c7_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc7_at1extendsc7_at1_type,onesigassoc1extendsAssociationsrc=class6_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc2extendsAssociationsrc=class6_namedst=Customersrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociationsrc=class3_namedst=class4_name,src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigassoc4extendsAssociationsrc=class3_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociation{}{src=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}predshowrunshow​,Tableclass1_name:Attributec1_at1PrimaryKeyTableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1PrimaryKeyTableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1PrimaryKeyTableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1PrimaryKeyTableclass4_name:Attributec4_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass8_name:map_str2MappingStrategyforclass3_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2AssociationStrategyforassoc5:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`class5_name`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_class5_name_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c5_at1`),);CREATETABLE`class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`),);CREATETABLE`class1_name`(`c1_at2`c4_at2_type(64)`c3_at1`c3_at2_type`c1_at1`c1_at1_typeKEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`),);CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64)`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`),);CREATETABLE`assoc2`(`c6_at1`c6_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc2_c6_at1_idx`(`c6_at1`),KEY`FK_assoc2_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c6_at1`,`c3_at1`),);CREATETABLE`assoc3`(`c4_at1`c4_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc3_c4_at1_idx`(`c4_at1`)KEY`FK_assoc3_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c4_at1`,`c3_at1`),);CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc1_c6_at1_idx`(`c6_at1`),KEY`FK_assoc1_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c6_at1`,`c4_at1`),);CREATETABLE`class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_typePRIMARYKEY(`c3_at1`),);ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0,openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_type,onesigclass2_nameextendsClassattrSet=c2_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc2_at1extendsc2_at1_type,onesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at1extendsc3_at1_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigc3_at5extendsc3_at5_type,onesigclass4_nameextendsClassattrSet=c4_at1+c4_at2id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_type,onesigclass5_nameextendsClassattrSet=c5_at1+c3_at1id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_type,onesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_type,onesigclass7_nameextendsClassattrSet=c7_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc7_at1extendsc7_at1_type,onesigassoc1extendsAssociationsrc=class6_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc2extendsAssociationsrc=class6_namedst=Customersrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociationsrc=class3_namedst=class4_name,src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigassoc4extendsAssociationsrc=class3_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociation{}{src=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}predshowrunshow​,Tableclass1_name:Attributec1_at1PrimaryKeyTableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1PrimaryKeyTableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1PrimaryKeyTableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1PrimaryKeyTableclass4_name:Attributec4_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass1_name:map_str2MappingStrategyforclass8_name:map_str2MappingStrategyforclass5_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name_0CREATETABLE`class5_name`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typePRIMARYKEY(`c5_at1`),);CREATETABLE`class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`),);CREATETABLE`class1_name`(`c1_at2`c4_at2_type(64)`c1_at1`c1_at1_typePRIMARYKEY(`c1_at1`),);CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c6_at1`c6_at1_type`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_typeKEY`FK_class3_name_c6_at1_idx`(`c6_at1`)PRIMARYKEY(`c3_at1`),);CREATETABLE`assoc5`(`c3_at1`c3_at2_type`c1_at1`c1_at1_typeKEY`FK_assoc5_c3_at1_idx`(`c3_at1`)KEY`FK_assoc5_c1_at1_idx`(`c1_at1`)PRIMARYKEY(`c3_at1`,`c1_at1`),);CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64)`c6_at1`c6_at1_type`c4_at1`c4_at1_typeNOTNULLKEY`FK_class4_name_c6_at1_idx`(`c6_at1`)PRIMARYKEY(`c4_at1`),);CREATETABLE`assoc3`(`c4_at1`c4_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc3_c4_at1_idx`(`c4_at1`)KEY`FK_assoc3_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c4_at1`,`c3_at1`),);CREATETABLE`assoc4`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc4_c5_at1_idx`(`c5_at1`)KEY`FK_assoc4_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c5_at1`,`c3_at1`));CREATETABLE`class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_typePRIMARYKEY(`c3_at1`),);ALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`class4_name`ADDCONSTRAINT`FK_class4_name_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0,openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_type,onesigclass2_nameextendsClassattrSet=c2_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc2_at1extendsc2_at1_type,onesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at1extendsc3_at1_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigc3_at5extendsc3_at5_type,onesigclass4_nameextendsClassattrSet=c4_at1+c4_at2id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_type,onesigclass5_nameextendsClassattrSet=c5_at1+c3_at1id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_type,onesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_type,onesigclass7_nameextendsClassattrSet=c7_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc7_at1extendsc7_at1_type,onesigassoc1extendsAssociationsrc=class6_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc2extendsAssociationsrc=class6_namedst=Customersrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociationsrc=class3_namedst=class4_name,src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigassoc4extendsAssociationsrc=class3_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociation{}{src=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}predshowrunshow​,Tableclass1_name:Attributec1_at1PrimaryKeyTableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1PrimaryKeyTableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1PrimaryKeyTableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1PrimaryKeyTableclass4_name:Attributec4_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass1_name:map_str2MappingStrategyforclass8_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name_0CREATETABLE`class5_name`(`c5_at1`c5_at1_typeNOTNULLPRIMARYKEY(`c5_at1`),);CREATETABLE`class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`),);CREATETABLE`class1_name`(`c1_at2`c4_at2_type(64)`c1_at1`c1_at1_typePRIMARYKEY(`c1_at1`),);CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c6_at1`c6_at1_type`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_typeKEY`FK_class3_name_c6_at1_idx`(`c6_at1`)PRIMARYKEY(`c3_at1`),);CREATETABLE`assoc5`(`c3_at1`c3_at2_type`c1_at1`c1_at1_typeKEY`FK_assoc5_c3_at1_idx`(`c3_at1`)KEY`FK_assoc5_c1_at1_idx`(`c1_at1`)PRIMARYKEY(`c3_at1`,`c1_at1`),);CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64)`c6_at1`c6_at1_type`c4_at1`c4_at1_typeNOTNULLKEY`FK_class4_name_c6_at1_idx`(`c6_at1`)PRIMARYKEY(`c4_at1`),);CREATETABLE`assoc3`(`c4_at1`c4_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc3_c4_at1_idx`(`c4_at1`)KEY`FK_assoc3_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c4_at1`,`c3_at1`),);CREATETABLE`assoc4`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc4_c5_at1_idx`(`c5_at1`)KEY`FK_assoc4_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c5_at1`,`c3_at1`));CREATETABLE`class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_typePRIMARYKEY(`c3_at1`),);ALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`class4_name`ADDCONSTRAINT`FK_class4_name_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,​ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0,openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_type,onesigclass2_nameextendsClassattrSet=c2_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc2_at1extendsc2_at1_type,onesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at1extendsc3_at1_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigc3_at5extendsc3_at5_type,onesigclass4_nameextendsClassattrSet=c4_at1+c4_at2id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_type,onesigclass5_nameextendsClassattrSet=c5_at1+c3_at1id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_type,onesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_type,onesigclass7_nameextendsClassattrSet=c7_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc7_at1extendsc7_at1_type,onesigassoc1extendsAssociationsrc=class6_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc2extendsAssociationsrc=class6_namedst=Customersrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociationsrc=class3_namedst=class4_name,src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigassoc4extendsAssociationsrc=class3_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociation{}{src=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}predshowrunshow​,Tableclass1_name:Attributec1_at1PrimaryKeyTableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1PrimaryKeyTableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1PrimaryKeyTableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1PrimaryKeyTableclass4_name:Attributec4_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass1_name:map_str2MappingStrategyforclass8_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name_0CREATETABLE`class5_name`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_class5_name_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c5_at1`),);CREATETABLE`class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`),);CREATETABLE`class1_name`(`c1_at2`c4_at2_type(64)`c1_at1`c1_at1_typePRIMARYKEY(`c1_at1`),);CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c6_at1`c6_at1_type`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_typeKEY`FK_class3_name_c6_at1_idx`(`c6_at1`)PRIMARYKEY(`c3_at1`),);CREATETABLE`assoc5`(`c3_at1`c3_at2_type`c1_at1`c1_at1_typeKEY`FK_assoc5_c3_at1_idx`(`c3_at1`)KEY`FK_assoc5_c1_at1_idx`(`c1_at1`)PRIMARYKEY(`c3_at1`,`c1_at1`),);CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64)`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`),);CREATETABLE`assoc3`(`c4_at1`c4_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc3_c4_at1_idx`(`c4_at1`)KEY`FK_assoc3_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c4_at1`,`c3_at1`),);CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc1_c6_at1_idx`(`c6_at1`),KEY`FK_assoc1_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c6_at1`,`c4_at1`),);CREATETABLE`class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_typePRIMARYKEY(`c3_at1`),);ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0,openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_type,onesigclass2_nameextendsClassattrSet=c2_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc2_at1extendsc2_at1_type,onesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at1extendsc3_at1_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigc3_at5extendsc3_at5_type,onesigclass4_nameextendsClassattrSet=c4_at1+c4_at2id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_type,onesigclass5_nameextendsClassattrSet=c5_at1+c3_at1id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_type,onesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_type,onesigclass7_nameextendsClassattrSet=c7_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc7_at1extendsc7_at1_type,onesigassoc1extendsAssociationsrc=class6_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc2extendsAssociationsrc=class6_namedst=Customersrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociationsrc=class3_namedst=class4_name,src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigassoc4extendsAssociationsrc=class3_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociation{}{src=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}predshowrunshow</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0,openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_type,onesigclass2_nameextendsClassattrSet=c2_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc2_at1extendsc2_at1_type,onesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at1extendsc3_at1_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigc3_at5extendsc3_at5_type,onesigclass4_nameextendsClassattrSet=c4_at1+c4_at2id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_type,onesigclass5_nameextendsClassattrSet=c5_at1+c3_at1id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_type,onesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_type,onesigclass7_nameextendsClassattrSet=c7_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc7_at1extendsc7_at1_type,onesigassoc1extendsAssociationsrc=class6_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc2extendsAssociationsrc=class6_namedst=Customersrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociationsrc=class3_namedst=class4_name,src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigassoc4extendsAssociationsrc=class3_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociation{}{src=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}predshowrunshow​,Tableclass1_name:Attributec1_at1PrimaryKeyTableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1PrimaryKeyTableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1PrimaryKeyTableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1PrimaryKeyTableclass4_name:Attributec4_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass8_name:map_str2MappingStrategyforclass3_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2AssociationStrategyforassoc5:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`class5_name`(`c5_at1`c5_at1_typeNOTNULLPRIMARYKEY(`c5_at1`),);CREATETABLE`class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`),);CREATETABLE`class1_name`(`c1_at2`c4_at2_type(64)`c3_at1`c3_at2_type`c1_at1`c1_at1_typeKEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`),);CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64)`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`),);CREATETABLE`assoc2`(`c6_at1`c6_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc2_c6_at1_idx`(`c6_at1`),KEY`FK_assoc2_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c6_at1`,`c3_at1`),);CREATETABLE`assoc3`(`c4_at1`c4_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc3_c4_at1_idx`(`c4_at1`)KEY`FK_assoc3_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c4_at1`,`c3_at1`),);CREATETABLE`assoc4`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc4_c5_at1_idx`(`c5_at1`)KEY`FK_assoc4_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c5_at1`,`c3_at1`));CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc1_c6_at1_idx`(`c6_at1`),KEY`FK_assoc1_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c6_at1`,`c4_at1`),);CREATETABLE`class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_typePRIMARYKEY(`c3_at1`),);ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0,openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_type,onesigclass2_nameextendsClassattrSet=c2_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc2_at1extendsc2_at1_type,onesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at1extendsc3_at1_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigc3_at5extendsc3_at5_type,onesigclass4_nameextendsClassattrSet=c4_at1+c4_at2id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_type,onesigclass5_nameextendsClassattrSet=c5_at1+c3_at1id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_type,onesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_type,onesigclass7_nameextendsClassattrSet=c7_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc7_at1extendsc7_at1_type,onesigassoc1extendsAssociationsrc=class6_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc2extendsAssociationsrc=class6_namedst=Customersrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociationsrc=class3_namedst=class4_name,src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigassoc4extendsAssociationsrc=class3_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociation{}{src=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}predshowrunshow​,Tableclass1_name:Attributec1_at1PrimaryKeyTableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1PrimaryKeyTableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1PrimaryKeyTableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1PrimaryKeyTableclass4_name:Attributec4_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass8_name:map_str2MappingStrategyforclass3_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc5:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2Tableclass1_name:Attributec1_at1PrimaryKeyTableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1PrimaryKeyTableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1PrimaryKeyTableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1PrimaryKeyTableclass4_name:Attributec4_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass8_name:map_str2MappingStrategyforclass3_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc5:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`class5_name`(`c5_at1`c5_at1_typeNOTNULLPRIMARYKEY(`c5_at1`),);CREATETABLE`class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`),);CREATETABLE`class1_name`(`c1_at2`c4_at2_type(64)`c3_at1`c3_at2_type`c1_at1`c1_at1_typeKEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`),);CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64)`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`),);CREATETABLE`assoc2`(`c6_at1`c6_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc2_c6_at1_idx`(`c6_at1`),KEY`FK_assoc2_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c6_at1`,`c3_at1`),);CREATETABLE`assoc3`(`c4_at1`c4_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc3_c4_at1_idx`(`c4_at1`)KEY`FK_assoc3_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c4_at1`,`c3_at1`),);CREATETABLE`assoc4`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc4_c5_at1_idx`(`c5_at1`)KEY`FK_assoc4_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c5_at1`,`c3_at1`));CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc1_c6_at1_idx`(`c6_at1`),KEY`FK_assoc1_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c6_at1`,`c4_at1`),);CREATETABLE`class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_typePRIMARYKEY(`c3_at1`),);ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0,openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_type,onesigclass2_nameextendsClassattrSet=c2_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc2_at1extendsc2_at1_type,onesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at1extendsc3_at1_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigc3_at5extendsc3_at5_type,onesigclass4_nameextendsClassattrSet=c4_at1+c4_at2id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_type,onesigclass5_nameextendsClassattrSet=c5_at1+c3_at1id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_type,onesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_type,onesigclass7_nameextendsClassattrSet=c7_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc7_at1extendsc7_at1_type,onesigassoc1extendsAssociationsrc=class6_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc2extendsAssociationsrc=class6_namedst=Customersrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociationsrc=class3_namedst=class4_name,src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigassoc4extendsAssociationsrc=class3_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociation{}{src=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}predshowrunshow​,Tableclass1_name:Attributec1_at1PrimaryKeyTableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1PrimaryKeyTableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1PrimaryKeyTableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1PrimaryKeyTableclass4_name:Attributec4_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass8_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc5:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`class5_name`(`c5_at1`c5_at1_typeNOTNULLPRIMARYKEY(`c5_at1`),);CREATETABLE`class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`),);CREATETABLE`class1_name`(`c1_at2`c4_at2_type(64)`c3_at1`c3_at2_type`c1_at1`c1_at1_typeKEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`),);CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c6_at1`c6_at1_type`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_typeKEY`FK_class3_name_c6_at1_idx`(`c6_at1`)PRIMARYKEY(`c3_at1`),);CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64)`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`),);CREATETABLE`assoc3`(`c4_at1`c4_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc3_c4_at1_idx`(`c4_at1`)KEY`FK_assoc3_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c4_at1`,`c3_at1`),);CREATETABLE`assoc4`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc4_c5_at1_idx`(`c5_at1`)KEY`FK_assoc4_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c5_at1`,`c3_at1`));CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc1_c6_at1_idx`(`c6_at1`),KEY`FK_assoc1_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c6_at1`,`c4_at1`),);CREATETABLE`class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_typePRIMARYKEY(`c3_at1`),);ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,​</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0,openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_type,onesigclass2_nameextendsClassattrSet=c2_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc2_at1extendsc2_at1_type,onesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at1extendsc3_at1_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigc3_at5extendsc3_at5_type,onesigclass4_nameextendsClassattrSet=c4_at1+c4_at2id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_type,onesigclass5_nameextendsClassattrSet=c5_at1+c3_at1id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_type,onesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_type,onesigclass7_nameextendsClassattrSet=c7_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc7_at1extendsc7_at1_type,onesigassoc1extendsAssociationsrc=class6_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc2extendsAssociationsrc=class6_namedst=Customersrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociationsrc=class3_namedst=class4_name,src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigassoc4extendsAssociationsrc=class3_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociation{}{src=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}predshowrunshow​,Tableclass1_name:Attributec1_at1PrimaryKeyTableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1PrimaryKeyTableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1PrimaryKeyTableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1PrimaryKeyTableclass4_name:Attributec4_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass8_name:map_str2MappingStrategyforclass5_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc5:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`class5_name`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typePRIMARYKEY(`c5_at1`),);CREATETABLE`class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`),);CREATETABLE`class1_name`(`c1_at2`c4_at2_type(64)`c3_at1`c3_at2_type`c1_at1`c1_at1_typeKEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`),);CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c6_at1`c6_at1_type`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_typeKEY`FK_class3_name_c6_at1_idx`(`c6_at1`)PRIMARYKEY(`c3_at1`),);CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64)`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`),);CREATETABLE`assoc3`(`c4_at1`c4_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc3_c4_at1_idx`(`c4_at1`)KEY`FK_assoc3_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c4_at1`,`c3_at1`),);CREATETABLE`assoc4`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc4_c5_at1_idx`(`c5_at1`)KEY`FK_assoc4_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c5_at1`,`c3_at1`));CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc1_c6_at1_idx`(`c6_at1`),KEY`FK_assoc1_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c6_at1`,`c4_at1`),);CREATETABLE`class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_typePRIMARYKEY(`c3_at1`),);ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,​</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0,openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_type,onesigclass2_nameextendsClassattrSet=c2_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc2_at1extendsc2_at1_type,onesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at1extendsc3_at1_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigc3_at5extendsc3_at5_type,onesigclass4_nameextendsClassattrSet=c4_at1+c4_at2id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_type,onesigclass5_nameextendsClassattrSet=c5_at1+c3_at1id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_type,onesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_type,onesigclass7_nameextendsClassattrSet=c7_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc7_at1extendsc7_at1_type,onesigassoc1extendsAssociationsrc=class6_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc2extendsAssociationsrc=class6_namedst=Customersrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociationsrc=class3_namedst=class4_name,src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigassoc4extendsAssociationsrc=class3_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociation{}{src=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}predshowrunshow​,Tableclass1_name:Attributec1_at1PrimaryKeyTableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1PrimaryKeyTableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1PrimaryKeyTableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1PrimaryKeyTableclass4_name:Attributec4_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass8_name:map_str2MappingStrategyforclass5_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc5:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`class5_name`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typePRIMARYKEY(`c5_at1`),);CREATETABLE`class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`),);CREATETABLE`class1_name`(`c1_at2`c4_at2_type(64)`c3_at1`c3_at2_type`c1_at1`c1_at1_typeKEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`),);CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c6_at1`c6_at1_type`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_typeKEY`FK_class3_name_c6_at1_idx`(`c6_at1`)PRIMARYKEY(`c3_at1`),);CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64)`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`),);CREATETABLE`assoc3`(`c4_at1`c4_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc3_c4_at1_idx`(`c4_at1`)KEY`FK_assoc3_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c4_at1`,`c3_at1`),);CREATETABLE`assoc4`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc4_c5_at1_idx`(`c5_at1`)KEY`FK_assoc4_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c5_at1`,`c3_at1`));CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc1_c6_at1_idx`(`c6_at1`),KEY`FK_assoc1_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c6_at1`,`c4_at1`),);CREATETABLE`class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_typePRIMARYKEY(`c3_at1`),);ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0,openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_type,onesigclass2_nameextendsClassattrSet=c2_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc2_at1extendsc2_at1_type,onesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at1extendsc3_at1_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigc3_at5extendsc3_at5_type,onesigclass4_nameextendsClassattrSet=c4_at1+c4_at2id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_type,onesigclass5_nameextendsClassattrSet=c5_at1+c3_at1id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_type,onesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_type,onesigclass7_nameextendsClassattrSet=c7_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc7_at1extendsc7_at1_type,onesigassoc1extendsAssociationsrc=class6_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc2extendsAssociationsrc=class6_namedst=Customersrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociationsrc=class3_namedst=class4_name,src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigassoc4extendsAssociationsrc=class3_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociation{}{src=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}predshowrunshow​,Tableclass1_name:Attributec1_at1PrimaryKeyTableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1PrimaryKeyTableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1PrimaryKeyTableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1PrimaryKeyTableclass4_name:Attributec4_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass8_name:map_str2MappingStrategyforclass3_name:map_str2MappingStrategyforclass5_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc5:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`class5_name`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typePRIMARYKEY(`c5_at1`),);CREATETABLE`class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`),);CREATETABLE`class1_name`(`c1_at2`c4_at2_type(64)`c3_at1`c3_at2_type`c1_at1`c1_at1_typeKEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`),);CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64)`c6_at1`c6_at1_type`c4_at1`c4_at1_typeNOTNULLKEY`FK_class4_name_c6_at1_idx`(`c6_at1`)PRIMARYKEY(`c4_at1`),);CREATETABLE`assoc2`(`c6_at1`c6_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc2_c6_at1_idx`(`c6_at1`),KEY`FK_assoc2_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c6_at1`,`c3_at1`),);CREATETABLE`assoc3`(`c4_at1`c4_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc3_c4_at1_idx`(`c4_at1`)KEY`FK_assoc3_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c4_at1`,`c3_at1`),);CREATETABLE`assoc4`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc4_c5_at1_idx`(`c5_at1`)KEY`FK_assoc4_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c5_at1`,`c3_at1`));CREATETABLE`class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_typePRIMARYKEY(`c3_at1`),);ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`class4_name`ADDCONSTRAINT`FK_class4_name_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0,openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_type,onesigclass2_nameextendsClassattrSet=c2_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc2_at1extendsc2_at1_type,onesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at1extendsc3_at1_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigc3_at5extendsc3_at5_type,onesigclass4_nameextendsClassattrSet=c4_at1+c4_at2id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_type,onesigclass5_nameextendsClassattrSet=c5_at1+c3_at1id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_type,onesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_type,onesigclass7_nameextendsClassattrSet=c7_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc7_at1extendsc7_at1_type,onesigassoc1extendsAssociationsrc=class6_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc2extendsAssociationsrc=class6_namedst=Customersrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociationsrc=class3_namedst=class4_name,src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigassoc4extendsAssociationsrc=class3_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociation{}{src=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}predshowrunshow​,Tableclass1_name:Attributec1_at1PrimaryKeyTableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1PrimaryKeyTableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1PrimaryKeyTableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1PrimaryKeyTableclass4_name:Attributec4_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass8_name:map_str2MappingStrategyforclass3_name:map_str2MappingStrategyforclass5_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc5:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`class5_name`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typePRIMARYKEY(`c5_at1`),);USEOM_name_0CREATETABLE`class5_name`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typePRIMARYKEY(`c5_at1`),);CREATETABLE`class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`),);CREATETABLE`class1_name`(`c1_at2`c4_at2_type(64)`c3_at1`c3_at2_type`c1_at1`c1_at1_typeKEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`),);CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64)`c6_at1`c6_at1_type`c4_at1`c4_at1_typeNOTNULLKEY`FK_class4_name_c6_at1_idx`(`c6_at1`)PRIMARYKEY(`c4_at1`),);CREATETABLE`assoc2`(`c6_at1`c6_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc2_c6_at1_idx`(`c6_at1`),KEY`FK_assoc2_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c6_at1`,`c3_at1`),);CREATETABLE`assoc3`(`c4_at1`c4_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc3_c4_at1_idx`(`c4_at1`)KEY`FK_assoc3_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c4_at1`,`c3_at1`),);CREATETABLE`assoc4`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc4_c5_at1_idx`(`c5_at1`)KEY`FK_assoc4_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c5_at1`,`c3_at1`));CREATETABLE`class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_typePRIMARYKEY(`c3_at1`),);ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`class4_name`ADDCONSTRAINT`FK_class4_name_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0,openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_type,onesigclass2_nameextendsClassattrSet=c2_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc2_at1extendsc2_at1_type,onesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at1extendsc3_at1_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigc3_at5extendsc3_at5_type,onesigclass4_nameextendsClassattrSet=c4_at1+c4_at2id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_type,onesigclass5_nameextendsClassattrSet=c5_at1+c3_at1id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_type,onesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_type,onesigclass7_nameextendsClassattrSet=c7_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc7_at1extendsc7_at1_type,onesigassoc1extendsAssociationsrc=class6_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc2extendsAssociationsrc=class6_namedst=Customersrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociationsrc=class3_namedst=class4_name,src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigassoc4extendsAssociationsrc=class3_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociation{}{src=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}predshowrunshow​,Tableclass1_name:Attributec1_at1PrimaryKeyTableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1PrimaryKeyTableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1PrimaryKeyTableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1PrimaryKeyTableclass4_name:Attributec4_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass1_name:map_str2MappingStrategyforclass8_name:map_str2MappingStrategyforclass3_name:map_str2MappingStrategyforclass5_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name_0CREATETABLE`class5_name`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typePRIMARYKEY(`c5_at1`),);CREATETABLE`class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`),);CREATETABLE`class1_name`(`c1_at2`c4_at2_type(64)`c1_at1`c1_at1_typePRIMARYKEY(`c1_at1`),);CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`assoc5`(`c3_at1`c3_at2_type`c1_at1`c1_at1_typeKEY`FK_assoc5_c3_at1_idx`(`c3_at1`)KEY`FK_assoc5_c1_at1_idx`(`c1_at1`)PRIMARYKEY(`c3_at1`,`c1_at1`),);CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64)`c6_at1`c6_at1_type`c4_at1`c4_at1_typeNOTNULLKEY`FK_class4_name_c6_at1_idx`(`c6_at1`)PRIMARYKEY(`c4_at1`),);CREATETABLE`assoc2`(`c6_at1`c6_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc2_c6_at1_idx`(`c6_at1`),KEY`FK_assoc2_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c6_at1`,`c3_at1`),);CREATETABLE`assoc3`(`c4_at1`c4_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc3_c4_at1_idx`(`c4_at1`)KEY`FK_assoc3_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c4_at1`,`c3_at1`),);CREATETABLE`assoc4`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc4_c5_at1_idx`(`c5_at1`)KEY`FK_assoc4_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c5_at1`,`c3_at1`));CREATETABLE`class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_typePRIMARYKEY(`c3_at1`),);ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`class4_name`ADDCONSTRAINT`FK_class4_name_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0,openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_type,onesigclass2_nameextendsClassattrSet=c2_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc2_at1extendsc2_at1_type,onesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at1extendsc3_at1_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigc3_at5extendsc3_at5_type,onesigclass4_nameextendsClassattrSet=c4_at1+c4_at2id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_type,onesigclass5_nameextendsClassattrSet=c5_at1+c3_at1id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_type,onesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_type,onesigclass7_nameextendsClassattrSet=c7_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc7_at1extendsc7_at1_type,onesigassoc1extendsAssociationsrc=class6_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc2extendsAssociationsrc=class6_namedst=Customersrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociationsrc=class3_namedst=class4_name,src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigassoc4extendsAssociationsrc=class3_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociation{}{src=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}predshowrunshow​,Tableclass1_name:Attributec1_at1PrimaryKeyTableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1PrimaryKeyTableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1PrimaryKeyTableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1PrimaryKeyTableclass4_name:Attributec4_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass1_name:map_str2MappingStrategyforclass8_name:map_str2MappingStrategyforclass3_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name_0CREATETABLE`class5_name`(`c5_at1`c5_at1_typeNOTNULLPRIMARYKEY(`c5_at1`),);CREATETABLE`class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`),);CREATETABLE`class1_name`(`c1_at2`c4_at2_type(64)`c1_at1`c1_at1_typePRIMARYKEY(`c1_at1`),);CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`assoc5`(`c3_at1`c3_at2_type`c1_at1`c1_at1_typeKEY`FK_assoc5_c3_at1_idx`(`c3_at1`)KEY`FK_assoc5_c1_at1_idx`(`c1_at1`)PRIMARYKEY(`c3_at1`,`c1_at1`),);CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64)`c6_at1`c6_at1_type`c4_at1`c4_at1_typeNOTNULLKEY`FK_class4_name_c6_at1_idx`(`c6_at1`)PRIMARYKEY(`c4_at1`),);CREATETABLE`assoc2`(`c6_at1`c6_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc2_c6_at1_idx`(`c6_at1`),KEY`FK_assoc2_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c6_at1`,`c3_at1`),);CREATETABLE`assoc3`(`c4_at1`c4_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc3_c4_at1_idx`(`c4_at1`)KEY`FK_assoc3_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c4_at1`,`c3_at1`),);CREATETABLE`assoc4`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc4_c5_at1_idx`(`c5_at1`)KEY`FK_assoc4_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c5_at1`,`c3_at1`));CREATETABLE`class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_typePRIMARYKEY(`c3_at1`),);ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`class4_name`ADDCONSTRAINT`FK_class4_name_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,​</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0,openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_type,onesigclass2_nameextendsClassattrSet=c2_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc2_at1extendsc2_at1_type,onesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at1extendsc3_at1_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigc3_at5extendsc3_at5_type,onesigclass4_nameextendsClassattrSet=c4_at1+c4_at2id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_type,onesigclass5_nameextendsClassattrSet=c5_at1+c3_at1id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_type,onesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_type,onesigclass7_nameextendsClassattrSet=c7_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc7_at1extendsc7_at1_type,onesigassoc1extendsAssociationsrc=class6_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc2extendsAssociationsrc=class6_namedst=Customersrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociationsrc=class3_namedst=class4_name,src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigassoc4extendsAssociationsrc=class3_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociation{}{src=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}predshowrunshow​,Tableclass1_name:Attributec1_at1PrimaryKeyTableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1PrimaryKeyTableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1PrimaryKeyTableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1PrimaryKeyTableclass4_name:Attributec4_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass1_name:map_str2MappingStrategyforclass8_name:map_str2MappingStrategyforclass5_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name_0CREATETABLE`class5_name`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typePRIMARYKEY(`c5_at1`),);CREATETABLE`class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`),);CREATETABLE`class1_name`(`c1_at2`c4_at2_type(64)`c1_at1`c1_at1_typePRIMARYKEY(`c1_at1`),);CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c6_at1`c6_at1_type`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_typeKEY`FK_class3_name_c6_at1_idx`(`c6_at1`)PRIMARYKEY(`c3_at1`),);CREATETABLE`assoc5`(`c3_at1`c3_at2_type`c1_at1`c1_at1_typeKEY`FK_assoc5_c3_at1_idx`(`c3_at1`)KEY`FK_assoc5_c1_at1_idx`(`c1_at1`)PRIMARYKEY(`c3_at1`,`c1_at1`),);CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64)`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`),);CREATETABLE`assoc3`(`c4_at1`c4_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc3_c4_at1_idx`(`c4_at1`)KEY`FK_assoc3_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c4_at1`,`c3_at1`),);CREATETABLE`assoc4`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc4_c5_at1_idx`(`c5_at1`)KEY`FK_assoc4_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c5_at1`,`c3_at1`));CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc1_c6_at1_idx`(`c6_at1`),KEY`FK_assoc1_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c6_at1`,`c4_at1`),);CREATETABLE`class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_typePRIMARYKEY(`c3_at1`),);ALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,​</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0,openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_type,onesigclass2_nameextendsClassattrSet=c2_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc2_at1extendsc2_at1_type,onesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at1extendsc3_at1_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigc3_at5extendsc3_at5_type,onesigclass4_nameextendsClassattrSet=c4_at1+c4_at2id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_type,onesigclass5_nameextendsClassattrSet=c5_at1+c3_at1id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_type,onesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_type,onesigclass7_nameextendsClassattrSet=c7_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc7_at1extendsc7_at1_type,onesigassoc1extendsAssociationsrc=class6_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc2extendsAssociationsrc=class6_namedst=Customersrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociationsrc=class3_namedst=class4_name,src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigassoc4extendsAssociationsrc=class3_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociation{}{src=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}predshowrunshow,Tableclass1_name:Attributec1_at1PrimaryKeyTableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1PrimaryKeyTableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1PrimaryKeyTableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1PrimaryKeyTableclass4_name:Attributec4_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass1_name:map_str2MappingStrategyforclass8_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name_0CREATETABLE`class5_name`(`c5_at1`c5_at1_typeNOTNULLPRIMARYKEY(`c5_at1`),);CREATETABLE`class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`),);CREATETABLE`class1_name`(`c1_at2`c4_at2_type(64)`c1_at1`c1_at1_typePRIMARYKEY(`c1_at1`),);CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c6_at1`c6_at1_type`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_typeKEY`FK_class3_name_c6_at1_idx`(`c6_at1`)PRIMARYKEY(`c3_at1`),);CREATETABLE`assoc5`(`c3_at1`c3_at2_type`c1_at1`c1_at1_typeKEY`FK_assoc5_c3_at1_idx`(`c3_at1`)KEY`FK_assoc5_c1_at1_idx`(`c1_at1`)PRIMARYKEY(`c3_at1`,`c1_at1`),);CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64)`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`),);CREATETABLE`assoc3`(`c4_at1`c4_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc3_c4_at1_idx`(`c4_at1`)KEY`FK_assoc3_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c4_at1`,`c3_at1`),);CREATETABLE`assoc4`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc4_c5_at1_idx`(`c5_at1`)KEY`FK_assoc4_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c5_at1`,`c3_at1`));CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc1_c6_at1_idx`(`c6_at1`),KEY`FK_assoc1_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c6_at1`,`c4_at1`),);CREATETABLE`class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_typePRIMARYKEY(`c3_at1`),);ALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0,openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_type,onesigclass2_nameextendsClassattrSet=c2_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc2_at1extendsc2_at1_type,onesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at1extendsc3_at1_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigc3_at5extendsc3_at5_type,onesigclass4_nameextendsClassattrSet=c4_at1+c4_at2id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_type,onesigclass5_nameextendsClassattrSet=c5_at1+c3_at1id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_type,onesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_type,onesigclass7_nameextendsClassattrSet=c7_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc7_at1extendsc7_at1_type,onesigassoc1extendsAssociationsrc=class6_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc2extendsAssociationsrc=class6_namedst=Customersrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociationsrc=class3_namedst=class4_name,src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigassoc4extendsAssociationsrc=class3_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociation{}{src=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}predshowrunshow​,Tableclass1_name:Attributec1_at1PrimaryKeyTableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1PrimaryKeyTableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1PrimaryKeyTableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1PrimaryKeyTableclass4_name:Attributec4_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass8_name:map_str2MappingStrategyforclass3_name:map_str2MappingStrategyforclass5_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2AssociationStrategyforassoc5:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`class5_name`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typePRIMARYKEY(`c5_at1`),);CREATETABLE`class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`),);CREATETABLE`class1_name`(`c1_at2`c4_at2_type(64)`c3_at1`c3_at2_type`c1_at1`c1_at1_typeKEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`),);CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64)`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`),);CREATETABLE`assoc2`(`c6_at1`c6_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc2_c6_at1_idx`(`c6_at1`),KEY`FK_assoc2_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c6_at1`,`c3_at1`),);CREATETABLE`assoc3`(`c4_at1`c4_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc3_c4_at1_idx`(`c4_at1`)KEY`FK_assoc3_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c4_at1`,`c3_at1`),);CREATETABLE`assoc4`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc4_c5_at1_idx`(`c5_at1`)KEY`FK_assoc4_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c5_at1`,`c3_at1`));CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc1_c6_at1_idx`(`c6_at1`),KEY`FK_assoc1_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c6_at1`,`c4_at1`),);CREATETABLE`class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_typePRIMARYKEY(`c3_at1`),);ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0,openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_type,onesigclass2_nameextendsClassattrSet=c2_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc2_at1extendsc2_at1_type,onesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at1extendsc3_at1_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigc3_at5extendsc3_at5_type,onesigclass4_nameextendsClassattrSet=c4_at1+c4_at2id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_type,onesigclass5_nameextendsClassattrSet=c5_at1+c3_at1id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_type,onesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_type,onesigclass7_nameextendsClassattrSet=c7_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc7_at1extendsc7_at1_type,onesigassoc1extendsAssociationsrc=class6_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc2extendsAssociationsrc=class6_namedst=Customersrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociationsrc=class3_namedst=class4_name,src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigassoc4extendsAssociationsrc=class3_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociation{}{src=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}predshowrunshow​,Tableclass1_name:Attributec1_at1PrimaryKeyTableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1PrimaryKeyTableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1PrimaryKeyTableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1PrimaryKeyTableclass4_name:Attributec4_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass1_name:map_str2MappingStrategyforclass8_name:map_str2MappingStrategyforclass3_name:map_str2MappingStrategyforclass5_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name_0CREATETABLE`class5_name`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typePRIMARYKEY(`c5_at1`),);CREATETABLE`class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`),);CREATETABLE`class1_name`(`c1_at2`c4_at2_type(64)`c1_at1`c1_at1_typePRIMARYKEY(`c1_at1`),);CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`assoc5`(`c3_at1`c3_at2_type`c1_at1`c1_at1_typeKEY`FK_assoc5_c3_at1_idx`(`c3_at1`)KEY`FK_assoc5_c1_at1_idx`(`c1_at1`)PRIMARYKEY(`c3_at1`,`c1_at1`),);CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64)`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`),);CREATETABLE`assoc2`(`c6_at1`c6_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc2_c6_at1_idx`(`c6_at1`),KEY`FK_assoc2_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c6_at1`,`c3_at1`),);CREATETABLE`assoc3`(`c4_at1`c4_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc3_c4_at1_idx`(`c4_at1`)KEY`FK_assoc3_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c4_at1`,`c3_at1`),);CREATETABLE`assoc4`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc4_c5_at1_idx`(`c5_at1`)KEY`FK_assoc4_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c5_at1`,`c3_at1`));CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc1_c6_at1_idx`(`c6_at1`),KEY`FK_assoc1_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c6_at1`,`c4_at1`),);CREATETABLE`class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_typePRIMARYKEY(`c3_at1`),);ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0,openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_type,onesigclass2_nameextendsClassattrSet=c2_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc2_at1extendsc2_at1_type,onesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at1extendsc3_at1_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigc3_at5extendsc3_at5_type,onesigclass4_nameextendsClassattrSet=c4_at1+c4_at2id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_type,onesigclass5_nameextendsClassattrSet=c5_at1+c3_at1id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_type,onesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_type,onesigclass7_nameextendsClassattrSet=c7_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc7_at1extendsc7_at1_type,onesigassoc1extendsAssociationsrc=class6_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc2extendsAssociationsrc=class6_namedst=Customersrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociationsrc=class3_namedst=class4_name,src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigassoc4extendsAssociationsrc=class3_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociation{}{src=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}predshowrunshow​,Tableclass1_name:Attributec1_at1PrimaryKeyTableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1PrimaryKeyTableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1PrimaryKeyTableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1PrimaryKeyTableclass4_name:Attributec4_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass1_name:map_str2MappingStrategyforclass8_name:map_str2MappingStrategyforclass3_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name_0CREATETABLE`class5_name`(`c5_at1`c5_at1_typeNOTNULLPRIMARYKEY(`c5_at1`),);CREATETABLE`class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`),);CREATETABLE`class1_name`(`c1_at2`c4_at2_type(64)`c1_at1`c1_at1_typePRIMARYKEY(`c1_at1`),);CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`assoc5`(`c3_at1`c3_at2_type`c1_at1`c1_at1_typeKEY`FK_assoc5_c3_at1_idx`(`c3_at1`)KEY`FK_assoc5_c1_at1_idx`(`c1_at1`)PRIMARYKEY(`c3_at1`,`c1_at1`),);CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64)`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`),);CREATETABLE`assoc2`(`c6_at1`c6_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc2_c6_at1_idx`(`c6_at1`),KEY`FK_assoc2_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c6_at1`,`c3_at1`),);CREATETABLE`assoc3`(`c4_at1`c4_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc3_c4_at1_idx`(`c4_at1`)KEY`FK_assoc3_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c4_at1`,`c3_at1`),);CREATETABLE`assoc4`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc4_c5_at1_idx`(`c5_at1`)KEY`FK_assoc4_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c5_at1`,`c3_at1`));CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc1_c6_at1_idx`(`c6_at1`),KEY`FK_assoc1_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c6_at1`,`c4_at1`),);CREATETABLE`class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_typePRIMARYKEY(`c3_at1`),);ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0,openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_type,onesigclass2_nameextendsClassattrSet=c2_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc2_at1extendsc2_at1_type,onesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at1extendsc3_at1_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigc3_at5extendsc3_at5_type,onesigclass4_nameextendsClassattrSet=c4_at1+c4_at2id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_type,onesigclass5_nameextendsClassattrSet=c5_at1+c3_at1id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_type,onesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_type,onesigclass7_nameextendsClassattrSet=c7_at1oneparentparentinclass5_nameid=c3_at1isAbstract=No}onesigc7_at1extendsc7_at1_type,onesigassoc1extendsAssociationsrc=class6_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc2extendsAssociationsrc=class6_namedst=Customersrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociationsrc=class3_namedst=class4_name,src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigassoc4extendsAssociationsrc=class3_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociation{}{src=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}predshowrunshow​,Tableclass1_name:Attributec1_at1PrimaryKeyTableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1PrimaryKeyTableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1PrimaryKeyTableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1PrimaryKeyTableclass4_name:Attributec4_at1PrimaryKeyTableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1PrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass1_name:map_str2MappingStrategyforclass8_name:map_str2MappingStrategyforclass3_name:map_str2MappingStrategyforclass5_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name_0CREATETABLE`class5_name`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typePRIMARYKEY(`c5_at1`),);CREATETABLE`class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`),);CREATETABLE`class1_name`(`c1_at2`c4_at2_type(64)`c1_at1`c1_at1_typePRIMARYKEY(`c1_at1`),);CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_typePRIMARYKEY(`c3_at1`),);CREATETABLE`assoc5`(`c3_at1`c3_at2_type`c1_at1`c1_at1_typeKEY`FK_assoc5_c3_at1_idx`(`c3_at1`)KEY`FK_assoc5_c1_at1_idx`(`c1_at1`)PRIMARYKEY(`c3_at1`,`c1_at1`),);CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64)`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`),);CREATETABLE`assoc2`(`c6_at1`c6_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc2_c6_at1_idx`(`c6_at1`),KEY`FK_assoc2_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c6_at1`,`c3_at1`),);CREATETABLE`assoc3`(`c4_at1`c4_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc3_c4_at1_idx`(`c4_at1`)KEY`FK_assoc3_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c4_at1`,`c3_at1`),);CREATETABLE`assoc4`(`c5_at1`c5_at1_typeNOTNULL`c3_at1`c3_at2_typeKEY`FK_assoc4_c5_at1_idx`(`c5_at1`)KEY`FK_assoc4_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c5_at1`,`c3_at1`));CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc1_c6_at1_idx`(`c6_at1`),KEY`FK_assoc1_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c6_at1`,`c4_at1`),);CREATETABLE`class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_typePRIMARYKEY(`c3_at1`),);ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,​</t>
-  </si>
-  <si>
     <t>OM_Regular</t>
   </si>
   <si>
+    <t xml:space="preserve">module OM_name:0 ,open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name  extends  Class attr Set=c2_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c2_at1 extends c2_at1_type, one sig class3_name  extends  Class attr Set=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name  extends  Class attr Set=c4_at1+c4_at2id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name  extends  Class attr Set=c5_at1+c3_at1id=c5_at1 no parent is Abstract=No} one sig c5_at1 extends c5_at1_type, one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name  extends  Class attr Set=c7_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c7_at1 extends c7_at1_type, one sig assoc1  extends  Association src=class6_namedst=class4_name, src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc2  extends  Association src=class6_namedst=Customer src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association src=class3_namedst=class4_name, src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,} one sig assoc4  extends  Association src=class3_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association{}{src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} pred show run show </t>
+  </si>
+  <si>
+    <t>module OM_name:0 ,open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name  extends  Class attr Set=c2_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c2_at1 extends c2_at1_type, one sig class3_name  extends  Class attr Set=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name  extends  Class attr Set=c4_at1+c4_at2id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name  extends  Class attr Set=c5_at1+c3_at1id=c5_at1 no parent is Abstract=No} one sig c5_at1 extends c5_at1_type, one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name  extends  Class attr Set=c7_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c7_at1 extends c7_at1_type, one sig assoc1  extends  Association src=class6_namedst=class4_name, src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc2  extends  Association src=class6_namedst=Customer src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association src=class3_namedst=class4_name, src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,} one sig assoc4  extends  Association src=class3_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association{}{src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} pred show run show ​,TableName:class5_nameTableName:class8_nameTableName:class7_nameTableName:class1_nameTableName:class3_nameTableName:class4_nameTableName:class6_nameTableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1 PRIMARY  KEY  Tableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  Tableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY MappingStrategyforclass8_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2Association Strategy for assoc1:assoc_type1Association Strategy for assoc2:assoc_type1Association Strategy for assoc5:assoc_type1Association Strategy for assoc3:assoc_type2,USEOM_name_0  CREATE TABLE `class5_name`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_class5_name_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c5_at1`),);  CREATE TABLE `class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`),);  CREATE TABLE `class1_name`(`c1_at2`c4_at2_type(64)`c3_at1`c3_at2_type`c1_at1`c1_at1_type KEY `FK_class1_name_c3_at1_idx`(`c3_at1`), PRIMARY  KEY (`c1_at1`),);  CREATE TABLE `class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c6_at1`c6_at1_type`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_type KEY `FK_class3_name_c6_at1_idx`(`c6_at1`) PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type(64)`c6_at1`c6_at1_type`c4_at1`c4_at1_type NOT NULL  KEY  `FK_class4_name_c6_at1_idx`(`c6_at1`) PRIMARY  KEY (`c4_at1`),);  CREATE TABLE `assoc3`(`c4_at1`c4_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc3_c4_at1_idx`(`c4_at1`) KEY `FK_assoc3_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c4_at1`,`c3_at1`),);  CREATE TABLE `class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_type PRIMARY  KEY (`c3_at1`),); ALTER TABLE `class5_name`ADD CONSTRAINT `FK_class5_name_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `class4_name`ADD CONSTRAINT `FK_class4_name_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE,​</t>
+  </si>
+  <si>
+    <t>module OM_name:0 ,open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name  extends  Class attr Set=c2_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c2_at1 extends c2_at1_type, one sig class3_name  extends  Class attr Set=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name  extends  Class attr Set=c4_at1+c4_at2id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name  extends  Class attr Set=c5_at1+c3_at1id=c5_at1 no parent is Abstract=No} one sig c5_at1 extends c5_at1_type, one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name  extends  Class attr Set=c7_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c7_at1 extends c7_at1_type, one sig assoc1  extends  Association src=class6_namedst=class4_name, src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc2  extends  Association src=class6_namedst=Customer src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association src=class3_namedst=class4_name, src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,} one sig assoc4  extends  Association src=class3_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association{}{src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} pred show run show ​,Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1 PRIMARY  KEY  Tableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  Tableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY MappingStrategyforclass8_name:map_str2MappingStrategyforclass5_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2Association Strategy for assoc1:assoc_type1Association Strategy for assoc2:assoc_type1Association Strategy for assoc5:assoc_type1Association Strategy for assoc3:assoc_type2,USEOM_name_0  CREATE TABLE `class5_name`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type PRIMARY  KEY (`c5_at1`),);  CREATE TABLE `class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`),);  CREATE TABLE `class1_name`(`c1_at2`c4_at2_type(64)`c3_at1`c3_at2_type`c1_at1`c1_at1_type KEY `FK_class1_name_c3_at1_idx`(`c3_at1`), PRIMARY  KEY (`c1_at1`),);  CREATE TABLE `class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c6_at1`c6_at1_type`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_type KEY `FK_class3_name_c6_at1_idx`(`c6_at1`) PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type(64)`c6_at1`c6_at1_type`c4_at1`c4_at1_type NOT NULL  KEY  `FK_class4_name_c6_at1_idx`(`c6_at1`) PRIMARY  KEY (`c4_at1`),);  CREATE TABLE `assoc3`(`c4_at1`c4_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc3_c4_at1_idx`(`c4_at1`) KEY `FK_assoc3_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c4_at1`,`c3_at1`),);  CREATE TABLE `assoc4`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc4_c5_at1_idx`(`c5_at1`) KEY `FK_assoc4_c3_at1_idx`(`c3_at1`), PRIMARY  KEY (`c5_at1`,`c3_at1`));  CREATE TABLE `class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_type PRIMARY  KEY (`c3_at1`),); ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `class4_name`ADD CONSTRAINT `FK_class4_name_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 ,open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name  extends  Class attr Set=c2_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c2_at1 extends c2_at1_type, one sig class3_name  extends  Class attr Set=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name  extends  Class attr Set=c4_at1+c4_at2id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name  extends  Class attr Set=c5_at1+c3_at1id=c5_at1 no parent is Abstract=No} one sig c5_at1 extends c5_at1_type, one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name  extends  Class attr Set=c7_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c7_at1 extends c7_at1_type, one sig assoc1  extends  Association src=class6_namedst=class4_name, src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc2  extends  Association src=class6_namedst=Customer src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association src=class3_namedst=class4_name, src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,} one sig assoc4  extends  Association src=class3_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association{}{src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} pred show run show ​,Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1 PRIMARY  KEY  Tableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  Tableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  TableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass1_name:map_str2MappingStrategyforclass8_name:map_str2MappingStrategyforclass3_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2Association Strategy for assoc1:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc5:assoc_type2,USEOM_name_0  CREATE TABLE `class5_name`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_class5_name_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c5_at1`),);  CREATE TABLE `class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`),);  CREATE TABLE `class1_name`(`c1_at2`c4_at2_type(64)`c1_at1`c1_at1_type PRIMARY  KEY (`c1_at1`),);  CREATE TABLE `class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c6_at1`c6_at1_type`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_type KEY `FK_class3_name_c6_at1_idx`(`c6_at1`) PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `assoc5`(`c3_at1`c3_at2_type`c1_at1`c1_at1_type KEY `FK_assoc5_c3_at1_idx`(`c3_at1`) KEY `FK_assoc5_c1_at1_idx`(`c1_at1`) PRIMARY  KEY (`c3_at1`,`c1_at1`),);  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type(64)`c6_at1`c6_at1_type`c4_at1`c4_at1_type NOT NULL  KEY  `FK_class4_name_c6_at1_idx`(`c6_at1`) PRIMARY  KEY (`c4_at1`),);  CREATE TABLE `assoc3`(`c4_at1`c4_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc3_c4_at1_idx`(`c4_at1`) KEY `FK_assoc3_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c4_at1`,`c3_at1`),);  CREATE TABLE `class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_type PRIMARY  KEY (`c3_at1`),); ALTER TABLE `class5_name`ADD CONSTRAINT `FK_class5_name_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc5`ADD CONSTRAINT `FK_assoc5_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c1_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `class4_name`ADD CONSTRAINT `FK_class4_name_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 ,open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name  extends  Class attr Set=c2_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c2_at1 extends c2_at1_type, one sig class3_name  extends  Class attr Set=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name  extends  Class attr Set=c4_at1+c4_at2id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name  extends  Class attr Set=c5_at1+c3_at1id=c5_at1 no parent is Abstract=No} one sig c5_at1 extends c5_at1_type, one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name  extends  Class attr Set=c7_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c7_at1 extends c7_at1_type, one sig assoc1  extends  Association src=class6_namedst=class4_name, src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc2  extends  Association src=class6_namedst=Customer src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association src=class3_namedst=class4_name, src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,} one sig assoc4  extends  Association src=class3_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association{}{src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} pred show run show ​,TableName:class5_nameTableName:class8_nameTableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1 PRIMARY  KEY  Tableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  Tableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY MappingStrategyforclass8_name:map_str2MappingStrategyforclass3_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2Association Strategy for assoc1:assoc_type1Association Strategy for assoc5:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2,USEOM_name_0  CREATE TABLE `class5_name`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_class5_name_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c5_at1`),);  CREATE TABLE `class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`),);  CREATE TABLE `class1_name`(`c1_at2`c4_at2_type(64)`c3_at1`c3_at2_type`c1_at1`c1_at1_type KEY `FK_class1_name_c3_at1_idx`(`c3_at1`), PRIMARY  KEY (`c1_at1`),);  CREATE TABLE `class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type(64)`c6_at1`c6_at1_type`c4_at1`c4_at1_type NOT NULL  KEY  `FK_class4_name_c6_at1_idx`(`c6_at1`) PRIMARY  KEY (`c4_at1`),);  CREATE TABLE `assoc2`(`c6_at1`c6_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc2_c6_at1_idx`(`c6_at1`), KEY `FK_assoc2_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c6_at1`,`c3_at1`));  CREATE TABLE `assoc3`(`c4_at1`c4_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc3_c4_at1_idx`(`c4_at1`) KEY `FK_assoc3_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c4_at1`,`c3_at1`),);  CREATE TABLE `class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_type PRIMARY  KEY (`c3_at1`),); ALTER TABLE `class5_name`ADD CONSTRAINT `FK_class5_name_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `class4_name`ADD CONSTRAINT `FK_class4_name_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE,</t>
+  </si>
+  <si>
+    <t>module OM_name:0 ,open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name  extends  Class attr Set=c2_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c2_at1 extends c2_at1_type, one sig class3_name  extends  Class attr Set=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name  extends  Class attr Set=c4_at1+c4_at2id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name  extends  Class attr Set=c5_at1+c3_at1id=c5_at1 no parent is Abstract=No} one sig c5_at1 extends c5_at1_type, one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name  extends  Class attr Set=c7_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c7_at1 extends c7_at1_type, one sig assoc1  extends  Association src=class6_namedst=class4_name, src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc2  extends  Association src=class6_namedst=Customer src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association src=class3_namedst=class4_name, src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,} one sig assoc4  extends  Association src=class3_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association{}{src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} pred show run show ​,TableName:class5_nameTableName:class8_nameTableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1 PRIMARY  KEY  Tableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  Tableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY MappingStrategyforclass8_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2Association Strategy for assoc2:assoc_type1Association Strategy for assoc5:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc3:assoc_type2,USEOM_name_0  CREATE TABLE `class5_name`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_class5_name_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c5_at1`),);  CREATE TABLE `class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`),);  CREATE TABLE `class1_name`(`c1_at2`c4_at2_type(64)`c3_at1`c3_at2_type`c1_at1`c1_at1_type KEY `FK_class1_name_c3_at1_idx`(`c3_at1`), PRIMARY  KEY (`c1_at1`),);  CREATE TABLE `class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c6_at1`c6_at1_type`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_type KEY `FK_class3_name_c6_at1_idx`(`c6_at1`) PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type(64)`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`),);  CREATE TABLE `assoc3`(`c4_at1`c4_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc3_c4_at1_idx`(`c4_at1`) KEY `FK_assoc3_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c4_at1`,`c3_at1`),);  CREATE TABLE `assoc1`(`c6_at1`c6_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc1_c6_at1_idx`(`c6_at1`), KEY `FK_assoc1_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c6_at1`,`c4_at1`),);  CREATE TABLE `class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_type PRIMARY  KEY (`c3_at1`),); ALTER TABLE `class5_name`ADD CONSTRAINT `FK_class5_name_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE,</t>
+  </si>
+  <si>
+    <t>module OM_name:0 ,open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name  extends  Class attr Set=c2_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c2_at1 extends c2_at1_type, one sig class3_name  extends  Class attr Set=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name  extends  Class attr Set=c4_at1+c4_at2id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name  extends  Class attr Set=c5_at1+c3_at1id=c5_at1 no parent is Abstract=No} one sig c5_at1 extends c5_at1_type, one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name  extends  Class attr Set=c7_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c7_at1 extends c7_at1_type, one sig assoc1  extends  Association src=class6_namedst=class4_name, src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc2  extends  Association src=class6_namedst=Customer src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association src=class3_namedst=class4_name, src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,} one sig assoc4  extends  Association src=class3_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association{}{src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} pred show run show ​,TableName:class5_nameTableName:class8_nameTableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1 PRIMARY  KEY  Tableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  Tableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY MappingStrategyforclass8_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2Association Strategy for assoc2:assoc_type1Association Strategy for assoc5:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc3:assoc_type2TableName:class5_nameTableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1 PRIMARY  KEY  Tableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  Tableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY MappingStrategyforclass8_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2Association Strategy for assoc1:assoc_type1Association Strategy for assoc2:assoc_type1Association Strategy for assoc5:assoc_type1Association Strategy for assoc3:assoc_type2​,USEOM_name_0  CREATE TABLE `class5_name`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_class5_name_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c5_at1`),);  CREATE TABLE `class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`),);  CREATE TABLE `class1_name`(`c1_at2`c4_at2_type(64)`c3_at1`c3_at2_type`c1_at1`c1_at1_type KEY `FK_class1_name_c3_at1_idx`(`c3_at1`), PRIMARY  KEY (`c1_at1`),);  CREATE TABLE `class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c6_at1`c6_at1_type`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_type KEY `FK_class3_name_c6_at1_idx`(`c6_at1`) PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type(64)`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`),);  CREATE TABLE `assoc3`(`c4_at1`c4_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc3_c4_at1_idx`(`c4_at1`) KEY `FK_assoc3_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c4_at1`,`c3_at1`),);  CREATE TABLE `assoc1`(`c6_at1`c6_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc1_c6_at1_idx`(`c6_at1`), KEY `FK_assoc1_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c6_at1`,`c4_at1`),);  CREATE TABLE `class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_type PRIMARY  KEY (`c3_at1`),); ALTER TABLE `class5_name`ADD CONSTRAINT `FK_class5_name_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE,</t>
+  </si>
+  <si>
+    <t>module OM_name:0 ,open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name  extends  Class attr Set=c2_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c2_at1 extends c2_at1_type, one sig class3_name  extends  Class attr Set=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name  extends  Class attr Set=c4_at1+c4_at2id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name  extends  Class attr Set=c5_at1+c3_at1id=c5_at1 no parent is Abstract=No} one sig c5_at1 extends c5_at1_type, one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name  extends  Class attr Set=c7_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c7_at1 extends c7_at1_type, one sig assoc1  extends  Association src=class6_namedst=class4_name, src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc2  extends  Association src=class6_namedst=Customer src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association src=class3_namedst=class4_name, src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,} one sig assoc4  extends  Association src=class3_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association{}{src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} pred show run show ​,TableName:class5_nameTableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1 PRIMARY  KEY  Tableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  Tableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY MappingStrategyforclass8_name:map_str2MappingStrategyforclass5_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2Association Strategy for assoc1:assoc_type1Association Strategy for assoc2:assoc_type1Association Strategy for assoc5:assoc_type1Association Strategy for assoc3:assoc_type2,USEOM_name_0  CREATE TABLE `class5_name`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type PRIMARY  KEY (`c5_at1`),);  CREATE TABLE `class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`),);  CREATE TABLE `class1_name`(`c1_at2`c4_at2_type(64)`c3_at1`c3_at2_type`c1_at1`c1_at1_type KEY `FK_class1_name_c3_at1_idx`(`c3_at1`), PRIMARY  KEY (`c1_at1`),);  CREATE TABLE `class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c6_at1`c6_at1_type`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_type KEY `FK_class3_name_c6_at1_idx`(`c6_at1`) PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type(64)`c6_at1`c6_at1_type`c4_at1`c4_at1_type NOT NULL  KEY  `FK_class4_name_c6_at1_idx`(`c6_at1`) PRIMARY  KEY (`c4_at1`),);  CREATE TABLE `assoc3`(`c4_at1`c4_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc3_c4_at1_idx`(`c4_at1`) KEY `FK_assoc3_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c4_at1`,`c3_at1`),);  CREATE TABLE `assoc4`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc4_c5_at1_idx`(`c5_at1`) KEY `FK_assoc4_c3_at1_idx`(`c3_at1`), PRIMARY  KEY (`c5_at1`,`c3_at1`));  CREATE TABLE `class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_type PRIMARY  KEY (`c3_at1`),); ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `class4_name`ADD CONSTRAINT `FK_class4_name_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE,​</t>
+  </si>
+  <si>
+    <t>module OM_name:0 ,open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name  extends  Class attr Set=c2_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c2_at1 extends c2_at1_type, one sig class3_name  extends  Class attr Set=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name  extends  Class attr Set=c4_at1+c4_at2id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name  extends  Class attr Set=c5_at1+c3_at1id=c5_at1 no parent is Abstract=No} one sig c5_at1 extends c5_at1_type, one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name  extends  Class attr Set=c7_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c7_at1 extends c7_at1_type, one sig assoc1  extends  Association src=class6_namedst=class4_name, src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc2  extends  Association src=class6_namedst=Customer src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association src=class3_namedst=class4_name, src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,} one sig assoc4  extends  Association src=class3_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association{}{src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} pred show run show ​,Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1 PRIMARY  KEY  Tableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  Tableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  TableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass8_name:map_str2MappingStrategyforclass3_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2Association Strategy for assoc5:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2,USEOM_name_0  CREATE TABLE `class5_name`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_class5_name_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c5_at1`),);  CREATE TABLE `class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`),);  CREATE TABLE `class1_name`(`c1_at2`c4_at2_type(64)`c3_at1`c3_at2_type`c1_at1`c1_at1_type KEY `FK_class1_name_c3_at1_idx`(`c3_at1`), PRIMARY  KEY (`c1_at1`),);  CREATE TABLE `class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type(64)`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`),);  CREATE TABLE `assoc2`(`c6_at1`c6_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc2_c6_at1_idx`(`c6_at1`), KEY `FK_assoc2_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c6_at1`,`c3_at1`),);  CREATE TABLE `assoc3`(`c4_at1`c4_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc3_c4_at1_idx`(`c4_at1`) KEY `FK_assoc3_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c4_at1`,`c3_at1`),);  CREATE TABLE `assoc1`(`c6_at1`c6_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc1_c6_at1_idx`(`c6_at1`), KEY `FK_assoc1_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c6_at1`,`c4_at1`),);  CREATE TABLE `class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_type PRIMARY  KEY (`c3_at1`),); ALTER TABLE `class5_name`ADD CONSTRAINT `FK_class5_name_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE,</t>
+  </si>
+  <si>
+    <t>module OM_name:0 ,open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name  extends  Class attr Set=c2_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c2_at1 extends c2_at1_type, one sig class3_name  extends  Class attr Set=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name  extends  Class attr Set=c4_at1+c4_at2id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name  extends  Class attr Set=c5_at1+c3_at1id=c5_at1 no parent is Abstract=No} one sig c5_at1 extends c5_at1_type, one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name  extends  Class attr Set=c7_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c7_at1 extends c7_at1_type, one sig assoc1  extends  Association src=class6_namedst=class4_name, src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc2  extends  Association src=class6_namedst=Customer src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association src=class3_namedst=class4_name, src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,} one sig assoc4  extends  Association src=class3_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association{}{src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} pred show run show ​,Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1 PRIMARY  KEY  Tableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  Tableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  TableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass1_name:map_str2MappingStrategyforclass8_name:map_str2MappingStrategyforclass5_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2Association Strategy for assoc1:assoc_type1Association Strategy for assoc2:assoc_type1Association Strategy for assoc3:assoc_type2Association Strategy for assoc5:assoc_type2,USEOM_name_0  CREATE TABLE `class5_name`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type PRIMARY  KEY (`c5_at1`),);  CREATE TABLE `class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`),);  CREATE TABLE `class1_name`(`c1_at2`c4_at2_type(64)`c1_at1`c1_at1_type PRIMARY  KEY (`c1_at1`),);  CREATE TABLE `class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c6_at1`c6_at1_type`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_type KEY `FK_class3_name_c6_at1_idx`(`c6_at1`) PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `assoc5`(`c3_at1`c3_at2_type`c1_at1`c1_at1_type KEY `FK_assoc5_c3_at1_idx`(`c3_at1`) KEY `FK_assoc5_c1_at1_idx`(`c1_at1`) PRIMARY  KEY (`c3_at1`,`c1_at1`),);  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type(64)`c6_at1`c6_at1_type`c4_at1`c4_at1_type NOT NULL  KEY  `FK_class4_name_c6_at1_idx`(`c6_at1`) PRIMARY  KEY (`c4_at1`),);  CREATE TABLE `assoc3`(`c4_at1`c4_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc3_c4_at1_idx`(`c4_at1`) KEY `FK_assoc3_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c4_at1`,`c3_at1`),);  CREATE TABLE `assoc4`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc4_c5_at1_idx`(`c5_at1`) KEY `FK_assoc4_c3_at1_idx`(`c3_at1`), PRIMARY  KEY (`c5_at1`,`c3_at1`));  CREATE TABLE `class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_type PRIMARY  KEY (`c3_at1`),); ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc5`ADD CONSTRAINT `FK_assoc5_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c1_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `class4_name`ADD CONSTRAINT `FK_class4_name_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE,</t>
+  </si>
+  <si>
+    <t>module OM_name:0 ,open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name  extends  Class attr Set=c2_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c2_at1 extends c2_at1_type, one sig class3_name  extends  Class attr Set=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name  extends  Class attr Set=c4_at1+c4_at2id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name  extends  Class attr Set=c5_at1+c3_at1id=c5_at1 no parent is Abstract=No} one sig c5_at1 extends c5_at1_type, one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name  extends  Class attr Set=c7_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c7_at1 extends c7_at1_type, one sig assoc1  extends  Association src=class6_namedst=class4_name, src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc2  extends  Association src=class6_namedst=Customer src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association src=class3_namedst=class4_name, src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,} one sig assoc4  extends  Association src=class3_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association{}{src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} pred show run show ​,Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1 PRIMARY  KEY  Tableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  Tableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  TableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass1_name:map_str2MappingStrategyforclass8_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2Association Strategy for assoc1:assoc_type1Association Strategy for assoc2:assoc_type1Association Strategy for assoc3:assoc_type2Association Strategy for assoc5:assoc_type2,USEOM_name_0  CREATE TABLE `class5_name`(`c5_at1`c5_at1_type NOT NULL PRIMARY  KEY (`c5_at1`),);  CREATE TABLE `class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`),);  CREATE TABLE `class1_name`(`c1_at2`c4_at2_type(64)`c1_at1`c1_at1_type PRIMARY  KEY (`c1_at1`),);  CREATE TABLE `class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c6_at1`c6_at1_type`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_type KEY `FK_class3_name_c6_at1_idx`(`c6_at1`) PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `assoc5`(`c3_at1`c3_at2_type`c1_at1`c1_at1_type KEY `FK_assoc5_c3_at1_idx`(`c3_at1`) KEY `FK_assoc5_c1_at1_idx`(`c1_at1`) PRIMARY  KEY (`c3_at1`,`c1_at1`),);  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type(64)`c6_at1`c6_at1_type`c4_at1`c4_at1_type NOT NULL  KEY  `FK_class4_name_c6_at1_idx`(`c6_at1`) PRIMARY  KEY (`c4_at1`),);  CREATE TABLE `assoc3`(`c4_at1`c4_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc3_c4_at1_idx`(`c4_at1`) KEY `FK_assoc3_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c4_at1`,`c3_at1`),);  CREATE TABLE `assoc4`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc4_c5_at1_idx`(`c5_at1`) KEY `FK_assoc4_c3_at1_idx`(`c3_at1`), PRIMARY  KEY (`c5_at1`,`c3_at1`));  CREATE TABLE `class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_type PRIMARY  KEY (`c3_at1`),); ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc5`ADD CONSTRAINT `FK_assoc5_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c1_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `class4_name`ADD CONSTRAINT `FK_class4_name_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE,​ ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE,</t>
+  </si>
+  <si>
+    <t>module OM_name:0 ,open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name  extends  Class attr Set=c2_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c2_at1 extends c2_at1_type, one sig class3_name  extends  Class attr Set=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name  extends  Class attr Set=c4_at1+c4_at2id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name  extends  Class attr Set=c5_at1+c3_at1id=c5_at1 no parent is Abstract=No} one sig c5_at1 extends c5_at1_type, one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name  extends  Class attr Set=c7_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c7_at1 extends c7_at1_type, one sig assoc1  extends  Association src=class6_namedst=class4_name, src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc2  extends  Association src=class6_namedst=Customer src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association src=class3_namedst=class4_name, src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,} one sig assoc4  extends  Association src=class3_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association{}{src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} pred show run show ​,Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1 PRIMARY  KEY  Tableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  Tableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  TableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass1_name:map_str2MappingStrategyforclass8_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2Association Strategy for assoc2:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc5:assoc_type2,USEOM_name_0  CREATE TABLE `class5_name`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_class5_name_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c5_at1`),);  CREATE TABLE `class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`),);  CREATE TABLE `class1_name`(`c1_at2`c4_at2_type(64)`c1_at1`c1_at1_type PRIMARY  KEY (`c1_at1`),);  CREATE TABLE `class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c6_at1`c6_at1_type`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_type KEY `FK_class3_name_c6_at1_idx`(`c6_at1`) PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `assoc5`(`c3_at1`c3_at2_type`c1_at1`c1_at1_type KEY `FK_assoc5_c3_at1_idx`(`c3_at1`) KEY `FK_assoc5_c1_at1_idx`(`c1_at1`) PRIMARY  KEY (`c3_at1`,`c1_at1`),);  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type(64)`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`),);  CREATE TABLE `assoc3`(`c4_at1`c4_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc3_c4_at1_idx`(`c4_at1`) KEY `FK_assoc3_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c4_at1`,`c3_at1`),);  CREATE TABLE `assoc1`(`c6_at1`c6_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc1_c6_at1_idx`(`c6_at1`), KEY `FK_assoc1_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c6_at1`,`c4_at1`),);  CREATE TABLE `class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_type PRIMARY  KEY (`c3_at1`),); ALTER TABLE `class5_name`ADD CONSTRAINT `FK_class5_name_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc5`ADD CONSTRAINT `FK_assoc5_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c1_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE,</t>
+  </si>
+  <si>
+    <t>module OM_name:0 ,open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name  extends  Class attr Set=c2_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c2_at1 extends c2_at1_type, one sig class3_name  extends  Class attr Set=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name  extends  Class attr Set=c4_at1+c4_at2id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name  extends  Class attr Set=c5_at1+c3_at1id=c5_at1 no parent is Abstract=No} one sig c5_at1 extends c5_at1_type, one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name  extends  Class attr Set=c7_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c7_at1 extends c7_at1_type, one sig assoc1  extends  Association src=class6_namedst=class4_name, src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc2  extends  Association src=class6_namedst=Customer src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association src=class3_namedst=class4_name, src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,} one sig assoc4  extends  Association src=class3_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association{}{src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} pred show run show ​,Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1 PRIMARY  KEY  Tableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  Tableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  TableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass8_name:map_str2MappingStrategyforclass3_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2Association Strategy for assoc5:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2,USEOM_name_0  CREATE TABLE `class5_name`(`c5_at1`c5_at1_type NOT NULL PRIMARY  KEY (`c5_at1`),);  CREATE TABLE `class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`),);  CREATE TABLE `class1_name`(`c1_at2`c4_at2_type(64)`c3_at1`c3_at2_type`c1_at1`c1_at1_type KEY `FK_class1_name_c3_at1_idx`(`c3_at1`), PRIMARY  KEY (`c1_at1`),);  CREATE TABLE `class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type(64)`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`),);  CREATE TABLE `assoc2`(`c6_at1`c6_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc2_c6_at1_idx`(`c6_at1`), KEY `FK_assoc2_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c6_at1`,`c3_at1`),);  CREATE TABLE `assoc3`(`c4_at1`c4_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc3_c4_at1_idx`(`c4_at1`) KEY `FK_assoc3_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c4_at1`,`c3_at1`),);  CREATE TABLE `assoc4`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc4_c5_at1_idx`(`c5_at1`) KEY `FK_assoc4_c3_at1_idx`(`c3_at1`), PRIMARY  KEY (`c5_at1`,`c3_at1`));  CREATE TABLE `assoc1`(`c6_at1`c6_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc1_c6_at1_idx`(`c6_at1`), KEY `FK_assoc1_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c6_at1`,`c4_at1`),);  CREATE TABLE `class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_type PRIMARY  KEY (`c3_at1`),); ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 ,open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name  extends  Class attr Set=c2_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c2_at1 extends c2_at1_type, one sig class3_name  extends  Class attr Set=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name  extends  Class attr Set=c4_at1+c4_at2id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name  extends  Class attr Set=c5_at1+c3_at1id=c5_at1 no parent is Abstract=No} one sig c5_at1 extends c5_at1_type, one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name  extends  Class attr Set=c7_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c7_at1 extends c7_at1_type, one sig assoc1  extends  Association src=class6_namedst=class4_name, src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc2  extends  Association src=class6_namedst=Customer src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association src=class3_namedst=class4_name, src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,} one sig assoc4  extends  Association src=class3_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association{}{src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} pred show run show ​,Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1 PRIMARY  KEY  Tableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  Tableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  TableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass8_name:map_str2MappingStrategyforclass3_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2Association Strategy for assoc1:assoc_type1Association Strategy for assoc5:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1 PRIMARY  KEY  Tableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  Tableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  TableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass8_name:map_str2MappingStrategyforclass3_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2Association Strategy for assoc1:assoc_type1Association Strategy for assoc5:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2,USEOM_name_0  CREATE TABLE `class5_name`(`c5_at1`c5_at1_type NOT NULL PRIMARY  KEY (`c5_at1`),);  CREATE TABLE `class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`),);  CREATE TABLE `class1_name`(`c1_at2`c4_at2_type(64)`c3_at1`c3_at2_type`c1_at1`c1_at1_type KEY `FK_class1_name_c3_at1_idx`(`c3_at1`), PRIMARY  KEY (`c1_at1`),);  CREATE TABLE `class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type(64)`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`),);  CREATE TABLE `assoc2`(`c6_at1`c6_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc2_c6_at1_idx`(`c6_at1`), KEY `FK_assoc2_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c6_at1`,`c3_at1`),);  CREATE TABLE `assoc3`(`c4_at1`c4_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc3_c4_at1_idx`(`c4_at1`) KEY `FK_assoc3_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c4_at1`,`c3_at1`),);  CREATE TABLE `assoc4`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc4_c5_at1_idx`(`c5_at1`) KEY `FK_assoc4_c3_at1_idx`(`c3_at1`), PRIMARY  KEY (`c5_at1`,`c3_at1`));  CREATE TABLE `assoc1`(`c6_at1`c6_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc1_c6_at1_idx`(`c6_at1`), KEY `FK_assoc1_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c6_at1`,`c4_at1`),);  CREATE TABLE `class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_type PRIMARY  KEY (`c3_at1`),); ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE,</t>
+  </si>
+  <si>
+    <t>module OM_name:0 ,open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name  extends  Class attr Set=c2_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c2_at1 extends c2_at1_type, one sig class3_name  extends  Class attr Set=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name  extends  Class attr Set=c4_at1+c4_at2id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name  extends  Class attr Set=c5_at1+c3_at1id=c5_at1 no parent is Abstract=No} one sig c5_at1 extends c5_at1_type, one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name  extends  Class attr Set=c7_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c7_at1 extends c7_at1_type, one sig assoc1  extends  Association src=class6_namedst=class4_name, src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc2  extends  Association src=class6_namedst=Customer src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association src=class3_namedst=class4_name, src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,} one sig assoc4  extends  Association src=class3_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association{}{src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} pred show run show ​,Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1 PRIMARY  KEY  Tableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  Tableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  TableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass8_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2Association Strategy for assoc2:assoc_type1Association Strategy for assoc5:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc3:assoc_type2,USEOM_name_0  CREATE TABLE `class5_name`(`c5_at1`c5_at1_type NOT NULL PRIMARY  KEY (`c5_at1`),);  CREATE TABLE `class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`),);  CREATE TABLE `class1_name`(`c1_at2`c4_at2_type(64)`c3_at1`c3_at2_type`c1_at1`c1_at1_type KEY `FK_class1_name_c3_at1_idx`(`c3_at1`), PRIMARY  KEY (`c1_at1`),);  CREATE TABLE `class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c6_at1`c6_at1_type`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_type KEY `FK_class3_name_c6_at1_idx`(`c6_at1`) PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type(64)`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`),);  CREATE TABLE `assoc3`(`c4_at1`c4_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc3_c4_at1_idx`(`c4_at1`) KEY `FK_assoc3_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c4_at1`,`c3_at1`),);  CREATE TABLE `assoc4`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc4_c5_at1_idx`(`c5_at1`) KEY `FK_assoc4_c3_at1_idx`(`c3_at1`), PRIMARY  KEY (`c5_at1`,`c3_at1`));  CREATE TABLE `assoc1`(`c6_at1`c6_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc1_c6_at1_idx`(`c6_at1`), KEY `FK_assoc1_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c6_at1`,`c4_at1`),);  CREATE TABLE `class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_type PRIMARY  KEY (`c3_at1`),); ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE,​</t>
+  </si>
+  <si>
+    <t>module OM_name:0 ,open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name  extends  Class attr Set=c2_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c2_at1 extends c2_at1_type, one sig class3_name  extends  Class attr Set=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name  extends  Class attr Set=c4_at1+c4_at2id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name  extends  Class attr Set=c5_at1+c3_at1id=c5_at1 no parent is Abstract=No} one sig c5_at1 extends c5_at1_type, one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name  extends  Class attr Set=c7_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c7_at1 extends c7_at1_type, one sig assoc1  extends  Association src=class6_namedst=class4_name, src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc2  extends  Association src=class6_namedst=Customer src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association src=class3_namedst=class4_name, src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,} one sig assoc4  extends  Association src=class3_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association{}{src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} pred show run show ​,Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1 PRIMARY  KEY  Tableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  Tableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  TableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass8_name:map_str2MappingStrategyforclass5_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2Association Strategy for assoc2:assoc_type1Association Strategy for assoc5:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc3:assoc_type2,USEOM_name_0  CREATE TABLE `class5_name`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type PRIMARY  KEY (`c5_at1`),);  CREATE TABLE `class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`),);  CREATE TABLE `class1_name`(`c1_at2`c4_at2_type(64)`c3_at1`c3_at2_type`c1_at1`c1_at1_type KEY `FK_class1_name_c3_at1_idx`(`c3_at1`), PRIMARY  KEY (`c1_at1`),);  CREATE TABLE `class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c6_at1`c6_at1_type`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_type KEY `FK_class3_name_c6_at1_idx`(`c6_at1`) PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type(64)`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`),);  CREATE TABLE `assoc3`(`c4_at1`c4_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc3_c4_at1_idx`(`c4_at1`) KEY `FK_assoc3_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c4_at1`,`c3_at1`),);  CREATE TABLE `assoc4`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc4_c5_at1_idx`(`c5_at1`) KEY `FK_assoc4_c3_at1_idx`(`c3_at1`), PRIMARY  KEY (`c5_at1`,`c3_at1`));  CREATE TABLE `assoc1`(`c6_at1`c6_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc1_c6_at1_idx`(`c6_at1`), KEY `FK_assoc1_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c6_at1`,`c4_at1`),);  CREATE TABLE `class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_type PRIMARY  KEY (`c3_at1`),); ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE,​</t>
+  </si>
+  <si>
+    <t>module OM_name:0 ,open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name  extends  Class attr Set=c2_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c2_at1 extends c2_at1_type, one sig class3_name  extends  Class attr Set=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name  extends  Class attr Set=c4_at1+c4_at2id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name  extends  Class attr Set=c5_at1+c3_at1id=c5_at1 no parent is Abstract=No} one sig c5_at1 extends c5_at1_type, one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name  extends  Class attr Set=c7_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c7_at1 extends c7_at1_type, one sig assoc1  extends  Association src=class6_namedst=class4_name, src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc2  extends  Association src=class6_namedst=Customer src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association src=class3_namedst=class4_name, src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,} one sig assoc4  extends  Association src=class3_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association{}{src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} pred show run show ​,Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1 PRIMARY  KEY  Tableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  Tableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  TableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass8_name:map_str2MappingStrategyforclass5_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2Association Strategy for assoc2:assoc_type1Association Strategy for assoc5:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc3:assoc_type2,USEOM_name_0  CREATE TABLE `class5_name`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type PRIMARY  KEY (`c5_at1`),);  CREATE TABLE `class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`),);  CREATE TABLE `class1_name`(`c1_at2`c4_at2_type(64)`c3_at1`c3_at2_type`c1_at1`c1_at1_type KEY `FK_class1_name_c3_at1_idx`(`c3_at1`), PRIMARY  KEY (`c1_at1`),);  CREATE TABLE `class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c6_at1`c6_at1_type`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_type KEY `FK_class3_name_c6_at1_idx`(`c6_at1`) PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type(64)`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`),);  CREATE TABLE `assoc3`(`c4_at1`c4_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc3_c4_at1_idx`(`c4_at1`) KEY `FK_assoc3_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c4_at1`,`c3_at1`),);  CREATE TABLE `assoc4`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc4_c5_at1_idx`(`c5_at1`) KEY `FK_assoc4_c3_at1_idx`(`c3_at1`), PRIMARY  KEY (`c5_at1`,`c3_at1`));  CREATE TABLE `assoc1`(`c6_at1`c6_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc1_c6_at1_idx`(`c6_at1`), KEY `FK_assoc1_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c6_at1`,`c4_at1`),);  CREATE TABLE `class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_type PRIMARY  KEY (`c3_at1`),); ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name:0 ,open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name  extends  Class attr Set=c2_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c2_at1 extends c2_at1_type, one sig class3_name  extends  Class attr Set=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name  extends  Class attr Set=c4_at1+c4_at2id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name  extends  Class attr Set=c5_at1+c3_at1id=c5_at1 no parent is Abstract=No} one sig c5_at1 extends c5_at1_type, one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name  extends  Class attr Set=c7_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c7_at1 extends c7_at1_type, one sig assoc1  extends  Association src=class6_namedst=class4_name, src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc2  extends  Association src=class6_namedst=Customer src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association src=class3_namedst=class4_name, src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,} one sig assoc4  extends  Association src=class3_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association{}{src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} pred show run show ​,Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1 PRIMARY  KEY  Tableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  Tableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  TableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass8_name:map_str2MappingStrategyforclass3_name:map_str2MappingStrategyforclass5_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2Association Strategy for assoc1:assoc_type1Association Strategy for assoc5:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2,USEOM_name_0  CREATE TABLE `class5_name`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type PRIMARY  KEY (`c5_at1`),);  CREATE TABLE `class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`),);  CREATE TABLE `class1_name`(`c1_at2`c4_at2_type(64)`c3_at1`c3_at2_type`c1_at1`c1_at1_type KEY `FK_class1_name_c3_at1_idx`(`c3_at1`), PRIMARY  KEY (`c1_at1`),);  CREATE TABLE `class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type(64)`c6_at1`c6_at1_type`c4_at1`c4_at1_type NOT NULL  KEY  `FK_class4_name_c6_at1_idx`(`c6_at1`) PRIMARY  KEY (`c4_at1`),);  CREATE TABLE `assoc2`(`c6_at1`c6_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc2_c6_at1_idx`(`c6_at1`), KEY `FK_assoc2_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c6_at1`,`c3_at1`),);  CREATE TABLE `assoc3`(`c4_at1`c4_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc3_c4_at1_idx`(`c4_at1`) KEY `FK_assoc3_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c4_at1`,`c3_at1`),);  CREATE TABLE `assoc4`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc4_c5_at1_idx`(`c5_at1`) KEY `FK_assoc4_c3_at1_idx`(`c3_at1`), PRIMARY  KEY (`c5_at1`,`c3_at1`));  CREATE TABLE `class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_type PRIMARY  KEY (`c3_at1`),); ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `class4_name`ADD CONSTRAINT `FK_class4_name_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE,</t>
+  </si>
+  <si>
+    <t>module OM_name:0 ,open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name  extends  Class attr Set=c2_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c2_at1 extends c2_at1_type, one sig class3_name  extends  Class attr Set=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name  extends  Class attr Set=c4_at1+c4_at2id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name  extends  Class attr Set=c5_at1+c3_at1id=c5_at1 no parent is Abstract=No} one sig c5_at1 extends c5_at1_type, one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name  extends  Class attr Set=c7_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c7_at1 extends c7_at1_type, one sig assoc1  extends  Association src=class6_namedst=class4_name, src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc2  extends  Association src=class6_namedst=Customer src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association src=class3_namedst=class4_name, src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,} one sig assoc4  extends  Association src=class3_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association{}{src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} pred show run show ​,Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1 PRIMARY  KEY  Tableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  Tableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  TableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass8_name:map_str2MappingStrategyforclass3_name:map_str2MappingStrategyforclass5_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2Association Strategy for assoc1:assoc_type1Association Strategy for assoc5:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2,USEOM_name_0  CREATE TABLE `class5_name`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type PRIMARY  KEY (`c5_at1`),);USEOM_name_0  CREATE TABLE `class5_name`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type PRIMARY  KEY (`c5_at1`),);  CREATE TABLE `class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`),);  CREATE TABLE `class1_name`(`c1_at2`c4_at2_type(64)`c3_at1`c3_at2_type`c1_at1`c1_at1_type KEY `FK_class1_name_c3_at1_idx`(`c3_at1`), PRIMARY  KEY (`c1_at1`),);  CREATE TABLE `class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type(64)`c6_at1`c6_at1_type`c4_at1`c4_at1_type NOT NULL  KEY  `FK_class4_name_c6_at1_idx`(`c6_at1`) PRIMARY  KEY (`c4_at1`),);  CREATE TABLE `assoc2`(`c6_at1`c6_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc2_c6_at1_idx`(`c6_at1`), KEY `FK_assoc2_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c6_at1`,`c3_at1`),);  CREATE TABLE `assoc3`(`c4_at1`c4_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc3_c4_at1_idx`(`c4_at1`) KEY `FK_assoc3_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c4_at1`,`c3_at1`),);  CREATE TABLE `assoc4`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc4_c5_at1_idx`(`c5_at1`) KEY `FK_assoc4_c3_at1_idx`(`c3_at1`), PRIMARY  KEY (`c5_at1`,`c3_at1`));  CREATE TABLE `class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_type PRIMARY  KEY (`c3_at1`),); ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `class4_name`ADD CONSTRAINT `FK_class4_name_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 ,open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name  extends  Class attr Set=c2_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c2_at1 extends c2_at1_type, one sig class3_name  extends  Class attr Set=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name  extends  Class attr Set=c4_at1+c4_at2id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name  extends  Class attr Set=c5_at1+c3_at1id=c5_at1 no parent is Abstract=No} one sig c5_at1 extends c5_at1_type, one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name  extends  Class attr Set=c7_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c7_at1 extends c7_at1_type, one sig assoc1  extends  Association src=class6_namedst=class4_name, src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc2  extends  Association src=class6_namedst=Customer src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association src=class3_namedst=class4_name, src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,} one sig assoc4  extends  Association src=class3_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association{}{src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} pred show run show ​,Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1 PRIMARY  KEY  Tableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  Tableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  TableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass1_name:map_str2MappingStrategyforclass8_name:map_str2MappingStrategyforclass3_name:map_str2MappingStrategyforclass5_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2Association Strategy for assoc1:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc5:assoc_type2,USEOM_name_0  CREATE TABLE `class5_name`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type PRIMARY  KEY (`c5_at1`),);  CREATE TABLE `class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`),);  CREATE TABLE `class1_name`(`c1_at2`c4_at2_type(64)`c1_at1`c1_at1_type PRIMARY  KEY (`c1_at1`),);  CREATE TABLE `class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `assoc5`(`c3_at1`c3_at2_type`c1_at1`c1_at1_type KEY `FK_assoc5_c3_at1_idx`(`c3_at1`) KEY `FK_assoc5_c1_at1_idx`(`c1_at1`) PRIMARY  KEY (`c3_at1`,`c1_at1`),);  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type(64)`c6_at1`c6_at1_type`c4_at1`c4_at1_type NOT NULL  KEY  `FK_class4_name_c6_at1_idx`(`c6_at1`) PRIMARY  KEY (`c4_at1`),);  CREATE TABLE `assoc2`(`c6_at1`c6_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc2_c6_at1_idx`(`c6_at1`), KEY `FK_assoc2_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c6_at1`,`c3_at1`),);  CREATE TABLE `assoc3`(`c4_at1`c4_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc3_c4_at1_idx`(`c4_at1`) KEY `FK_assoc3_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c4_at1`,`c3_at1`),);  CREATE TABLE `assoc4`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc4_c5_at1_idx`(`c5_at1`) KEY `FK_assoc4_c3_at1_idx`(`c3_at1`), PRIMARY  KEY (`c5_at1`,`c3_at1`));  CREATE TABLE `class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_type PRIMARY  KEY (`c3_at1`),); ALTER TABLE `assoc5`ADD CONSTRAINT `FK_assoc5_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c1_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `class4_name`ADD CONSTRAINT `FK_class4_name_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE,</t>
+  </si>
+  <si>
+    <t>module OM_name:0 ,open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name  extends  Class attr Set=c2_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c2_at1 extends c2_at1_type, one sig class3_name  extends  Class attr Set=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name  extends  Class attr Set=c4_at1+c4_at2id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name  extends  Class attr Set=c5_at1+c3_at1id=c5_at1 no parent is Abstract=No} one sig c5_at1 extends c5_at1_type, one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name  extends  Class attr Set=c7_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c7_at1 extends c7_at1_type, one sig assoc1  extends  Association src=class6_namedst=class4_name, src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc2  extends  Association src=class6_namedst=Customer src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association src=class3_namedst=class4_name, src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,} one sig assoc4  extends  Association src=class3_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association{}{src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} pred show run show ​,Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1 PRIMARY  KEY  Tableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  Tableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  TableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass1_name:map_str2MappingStrategyforclass8_name:map_str2MappingStrategyforclass3_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2Association Strategy for assoc1:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc5:assoc_type2,USEOM_name_0  CREATE TABLE `class5_name`(`c5_at1`c5_at1_type NOT NULL PRIMARY  KEY (`c5_at1`),);  CREATE TABLE `class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`),);  CREATE TABLE `class1_name`(`c1_at2`c4_at2_type(64)`c1_at1`c1_at1_type PRIMARY  KEY (`c1_at1`),);  CREATE TABLE `class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `assoc5`(`c3_at1`c3_at2_type`c1_at1`c1_at1_type KEY `FK_assoc5_c3_at1_idx`(`c3_at1`) KEY `FK_assoc5_c1_at1_idx`(`c1_at1`) PRIMARY  KEY (`c3_at1`,`c1_at1`),);  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type(64)`c6_at1`c6_at1_type`c4_at1`c4_at1_type NOT NULL  KEY  `FK_class4_name_c6_at1_idx`(`c6_at1`) PRIMARY  KEY (`c4_at1`),);  CREATE TABLE `assoc2`(`c6_at1`c6_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc2_c6_at1_idx`(`c6_at1`), KEY `FK_assoc2_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c6_at1`,`c3_at1`),);  CREATE TABLE `assoc3`(`c4_at1`c4_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc3_c4_at1_idx`(`c4_at1`) KEY `FK_assoc3_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c4_at1`,`c3_at1`),);  CREATE TABLE `assoc4`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc4_c5_at1_idx`(`c5_at1`) KEY `FK_assoc4_c3_at1_idx`(`c3_at1`), PRIMARY  KEY (`c5_at1`,`c3_at1`));  CREATE TABLE `class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_type PRIMARY  KEY (`c3_at1`),); ALTER TABLE `assoc5`ADD CONSTRAINT `FK_assoc5_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c1_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `class4_name`ADD CONSTRAINT `FK_class4_name_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE,​</t>
+  </si>
+  <si>
+    <t>module OM_name:0 ,open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name  extends  Class attr Set=c2_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c2_at1 extends c2_at1_type, one sig class3_name  extends  Class attr Set=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name  extends  Class attr Set=c4_at1+c4_at2id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name  extends  Class attr Set=c5_at1+c3_at1id=c5_at1 no parent is Abstract=No} one sig c5_at1 extends c5_at1_type, one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name  extends  Class attr Set=c7_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c7_at1 extends c7_at1_type, one sig assoc1  extends  Association src=class6_namedst=class4_name, src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc2  extends  Association src=class6_namedst=Customer src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association src=class3_namedst=class4_name, src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,} one sig assoc4  extends  Association src=class3_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association{}{src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} pred show run show ​,Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1 PRIMARY  KEY  Tableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  Tableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  TableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass1_name:map_str2MappingStrategyforclass8_name:map_str2MappingStrategyforclass5_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2Association Strategy for assoc2:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc5:assoc_type2,USEOM_name_0  CREATE TABLE `class5_name`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type PRIMARY  KEY (`c5_at1`),);  CREATE TABLE `class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`),);  CREATE TABLE `class1_name`(`c1_at2`c4_at2_type(64)`c1_at1`c1_at1_type PRIMARY  KEY (`c1_at1`),);  CREATE TABLE `class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c6_at1`c6_at1_type`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_type KEY `FK_class3_name_c6_at1_idx`(`c6_at1`) PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `assoc5`(`c3_at1`c3_at2_type`c1_at1`c1_at1_type KEY `FK_assoc5_c3_at1_idx`(`c3_at1`) KEY `FK_assoc5_c1_at1_idx`(`c1_at1`) PRIMARY  KEY (`c3_at1`,`c1_at1`),);  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type(64)`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`),);  CREATE TABLE `assoc3`(`c4_at1`c4_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc3_c4_at1_idx`(`c4_at1`) KEY `FK_assoc3_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c4_at1`,`c3_at1`),);  CREATE TABLE `assoc4`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc4_c5_at1_idx`(`c5_at1`) KEY `FK_assoc4_c3_at1_idx`(`c3_at1`), PRIMARY  KEY (`c5_at1`,`c3_at1`));  CREATE TABLE `assoc1`(`c6_at1`c6_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc1_c6_at1_idx`(`c6_at1`), KEY `FK_assoc1_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c6_at1`,`c4_at1`),);  CREATE TABLE `class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_type PRIMARY  KEY (`c3_at1`),); ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc5`ADD CONSTRAINT `FK_assoc5_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c1_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE,​</t>
+  </si>
+  <si>
+    <t>module OM_name:0 ,open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name  extends  Class attr Set=c2_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c2_at1 extends c2_at1_type, one sig class3_name  extends  Class attr Set=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name  extends  Class attr Set=c4_at1+c4_at2id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name  extends  Class attr Set=c5_at1+c3_at1id=c5_at1 no parent is Abstract=No} one sig c5_at1 extends c5_at1_type, one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name  extends  Class attr Set=c7_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c7_at1 extends c7_at1_type, one sig assoc1  extends  Association src=class6_namedst=class4_name, src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc2  extends  Association src=class6_namedst=Customer src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association src=class3_namedst=class4_name, src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,} one sig assoc4  extends  Association src=class3_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association{}{src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} pred show run show ,Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1 PRIMARY  KEY  Tableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  Tableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  TableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass1_name:map_str2MappingStrategyforclass8_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2Association Strategy for assoc2:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc5:assoc_type2,USEOM_name_0  CREATE TABLE `class5_name`(`c5_at1`c5_at1_type NOT NULL PRIMARY  KEY (`c5_at1`),);  CREATE TABLE `class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`),);  CREATE TABLE `class1_name`(`c1_at2`c4_at2_type(64)`c1_at1`c1_at1_type PRIMARY  KEY (`c1_at1`),);  CREATE TABLE `class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c6_at1`c6_at1_type`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_type KEY `FK_class3_name_c6_at1_idx`(`c6_at1`) PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `assoc5`(`c3_at1`c3_at2_type`c1_at1`c1_at1_type KEY `FK_assoc5_c3_at1_idx`(`c3_at1`) KEY `FK_assoc5_c1_at1_idx`(`c1_at1`) PRIMARY  KEY (`c3_at1`,`c1_at1`),);  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type(64)`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`),);  CREATE TABLE `assoc3`(`c4_at1`c4_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc3_c4_at1_idx`(`c4_at1`) KEY `FK_assoc3_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c4_at1`,`c3_at1`),);  CREATE TABLE `assoc4`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc4_c5_at1_idx`(`c5_at1`) KEY `FK_assoc4_c3_at1_idx`(`c3_at1`), PRIMARY  KEY (`c5_at1`,`c3_at1`));  CREATE TABLE `assoc1`(`c6_at1`c6_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc1_c6_at1_idx`(`c6_at1`), KEY `FK_assoc1_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c6_at1`,`c4_at1`),);  CREATE TABLE `class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_type PRIMARY  KEY (`c3_at1`),); ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc5`ADD CONSTRAINT `FK_assoc5_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c1_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE,</t>
+  </si>
+  <si>
+    <t>module OM_name:0 ,open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name  extends  Class attr Set=c2_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c2_at1 extends c2_at1_type, one sig class3_name  extends  Class attr Set=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name  extends  Class attr Set=c4_at1+c4_at2id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name  extends  Class attr Set=c5_at1+c3_at1id=c5_at1 no parent is Abstract=No} one sig c5_at1 extends c5_at1_type, one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name  extends  Class attr Set=c7_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c7_at1 extends c7_at1_type, one sig assoc1  extends  Association src=class6_namedst=class4_name, src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc2  extends  Association src=class6_namedst=Customer src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association src=class3_namedst=class4_name, src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,} one sig assoc4  extends  Association src=class3_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association{}{src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} pred show run show ​,Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1 PRIMARY  KEY  Tableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  Tableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  TableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass8_name:map_str2MappingStrategyforclass3_name:map_str2MappingStrategyforclass5_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2Association Strategy for assoc5:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2,USEOM_name_0  CREATE TABLE `class5_name`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type PRIMARY  KEY (`c5_at1`),);  CREATE TABLE `class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`),);  CREATE TABLE `class1_name`(`c1_at2`c4_at2_type(64)`c3_at1`c3_at2_type`c1_at1`c1_at1_type KEY `FK_class1_name_c3_at1_idx`(`c3_at1`), PRIMARY  KEY (`c1_at1`),);  CREATE TABLE `class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type(64)`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`),);  CREATE TABLE `assoc2`(`c6_at1`c6_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc2_c6_at1_idx`(`c6_at1`), KEY `FK_assoc2_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c6_at1`,`c3_at1`),);  CREATE TABLE `assoc3`(`c4_at1`c4_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc3_c4_at1_idx`(`c4_at1`) KEY `FK_assoc3_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c4_at1`,`c3_at1`),);  CREATE TABLE `assoc4`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc4_c5_at1_idx`(`c5_at1`) KEY `FK_assoc4_c3_at1_idx`(`c3_at1`), PRIMARY  KEY (`c5_at1`,`c3_at1`));  CREATE TABLE `assoc1`(`c6_at1`c6_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc1_c6_at1_idx`(`c6_at1`), KEY `FK_assoc1_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c6_at1`,`c4_at1`),);  CREATE TABLE `class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_type PRIMARY  KEY (`c3_at1`),); ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE,</t>
+  </si>
+  <si>
+    <t>module OM_name:0 ,open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name  extends  Class attr Set=c2_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c2_at1 extends c2_at1_type, one sig class3_name  extends  Class attr Set=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name  extends  Class attr Set=c4_at1+c4_at2id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name  extends  Class attr Set=c5_at1+c3_at1id=c5_at1 no parent is Abstract=No} one sig c5_at1 extends c5_at1_type, one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name  extends  Class attr Set=c7_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c7_at1 extends c7_at1_type, one sig assoc1  extends  Association src=class6_namedst=class4_name, src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc2  extends  Association src=class6_namedst=Customer src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association src=class3_namedst=class4_name, src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,} one sig assoc4  extends  Association src=class3_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association{}{src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} pred show run show ​,Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1 PRIMARY  KEY  Tableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  Tableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  TableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass1_name:map_str2MappingStrategyforclass8_name:map_str2MappingStrategyforclass3_name:map_str2MappingStrategyforclass5_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc5:assoc_type2,USEOM_name_0  CREATE TABLE `class5_name`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type PRIMARY  KEY (`c5_at1`),);  CREATE TABLE `class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`),);  CREATE TABLE `class1_name`(`c1_at2`c4_at2_type(64)`c1_at1`c1_at1_type PRIMARY  KEY (`c1_at1`),);  CREATE TABLE `class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `assoc5`(`c3_at1`c3_at2_type`c1_at1`c1_at1_type KEY `FK_assoc5_c3_at1_idx`(`c3_at1`) KEY `FK_assoc5_c1_at1_idx`(`c1_at1`) PRIMARY  KEY (`c3_at1`,`c1_at1`),);  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type(64)`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`),);  CREATE TABLE `assoc2`(`c6_at1`c6_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc2_c6_at1_idx`(`c6_at1`), KEY `FK_assoc2_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c6_at1`,`c3_at1`),);  CREATE TABLE `assoc3`(`c4_at1`c4_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc3_c4_at1_idx`(`c4_at1`) KEY `FK_assoc3_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c4_at1`,`c3_at1`),);  CREATE TABLE `assoc4`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc4_c5_at1_idx`(`c5_at1`) KEY `FK_assoc4_c3_at1_idx`(`c3_at1`), PRIMARY  KEY (`c5_at1`,`c3_at1`));  CREATE TABLE `assoc1`(`c6_at1`c6_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc1_c6_at1_idx`(`c6_at1`), KEY `FK_assoc1_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c6_at1`,`c4_at1`),);  CREATE TABLE `class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_type PRIMARY  KEY (`c3_at1`),); ALTER TABLE `assoc5`ADD CONSTRAINT `FK_assoc5_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c1_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE,</t>
+  </si>
+  <si>
+    <t>module OM_name:0 ,open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name  extends  Class attr Set=c2_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c2_at1 extends c2_at1_type, one sig class3_name  extends  Class attr Set=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name  extends  Class attr Set=c4_at1+c4_at2id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name  extends  Class attr Set=c5_at1+c3_at1id=c5_at1 no parent is Abstract=No} one sig c5_at1 extends c5_at1_type, one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name  extends  Class attr Set=c7_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c7_at1 extends c7_at1_type, one sig assoc1  extends  Association src=class6_namedst=class4_name, src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc2  extends  Association src=class6_namedst=Customer src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association src=class3_namedst=class4_name, src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,} one sig assoc4  extends  Association src=class3_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association{}{src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} pred show run show ​,Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1 PRIMARY  KEY  Tableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  Tableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  TableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass1_name:map_str2MappingStrategyforclass8_name:map_str2MappingStrategyforclass3_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc5:assoc_type2,USEOM_name_0  CREATE TABLE `class5_name`(`c5_at1`c5_at1_type NOT NULL PRIMARY  KEY (`c5_at1`),);  CREATE TABLE `class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`),);  CREATE TABLE `class1_name`(`c1_at2`c4_at2_type(64)`c1_at1`c1_at1_type PRIMARY  KEY (`c1_at1`),);  CREATE TABLE `class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `assoc5`(`c3_at1`c3_at2_type`c1_at1`c1_at1_type KEY `FK_assoc5_c3_at1_idx`(`c3_at1`) KEY `FK_assoc5_c1_at1_idx`(`c1_at1`) PRIMARY  KEY (`c3_at1`,`c1_at1`),);  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type(64)`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`),);  CREATE TABLE `assoc2`(`c6_at1`c6_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc2_c6_at1_idx`(`c6_at1`), KEY `FK_assoc2_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c6_at1`,`c3_at1`),);  CREATE TABLE `assoc3`(`c4_at1`c4_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc3_c4_at1_idx`(`c4_at1`) KEY `FK_assoc3_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c4_at1`,`c3_at1`),);  CREATE TABLE `assoc4`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc4_c5_at1_idx`(`c5_at1`) KEY `FK_assoc4_c3_at1_idx`(`c3_at1`), PRIMARY  KEY (`c5_at1`,`c3_at1`));  CREATE TABLE `assoc1`(`c6_at1`c6_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc1_c6_at1_idx`(`c6_at1`), KEY `FK_assoc1_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c6_at1`,`c4_at1`),);  CREATE TABLE `class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_type PRIMARY  KEY (`c3_at1`),); ALTER TABLE `assoc5`ADD CONSTRAINT `FK_assoc5_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c1_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE,</t>
+  </si>
+  <si>
+    <t>module OM_name:0 ,open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name  extends  Class attr Set=c2_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c2_at1 extends c2_at1_type, one sig class3_name  extends  Class attr Set=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name  extends  Class attr Set=c4_at1+c4_at2id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name  extends  Class attr Set=c5_at1+c3_at1id=c5_at1 no parent is Abstract=No} one sig c5_at1 extends c5_at1_type, one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name  extends  Class attr Set=c7_at1 one parent parent in class5_nameid=c3_at1isAbstract=No} one sig c7_at1 extends c7_at1_type, one sig assoc1  extends  Association src=class6_namedst=class4_name, src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc2  extends  Association src=class6_namedst=Customer src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association src=class3_namedst=class4_name, src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,} one sig assoc4  extends  Association src=class3_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} one sig assoc3  extends  Association{}{src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc,} pred show run show ​,Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass1_name:Attributec1_at2Tableclass2_name:Attributec2_at1 PRIMARY  KEY  Tableclass3_name:Attributec3_at4Tableclass3_name:Attributec3_at5Tableclass3_name:Attributec3_at2Tableclass3_name:Attributec3_at2Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at2Tableclass5_name:Attributec3_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  Tableclass6_name:Attributec6_at2Tableclass6_name:Attributec6_at3Tableclass7_name:Attributec7_at1Tableclass1_name:Attributec1_at1 PRIMARY  KEY  Tableclass4_name:Attributec4_at1 PRIMARY  KEY  Tableclass5_name:Attributec5_at1Tableclass6_name:Attributec6_at1 PRIMARY  KEY  TableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameTableName:class7_nameMappingStrategyforclass1_name:map_str2MappingStrategyforclass8_name:map_str2MappingStrategyforclass3_name:map_str2MappingStrategyforclass5_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass7_name:map_str2Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc5:assoc_type2,USEOM_name_0  CREATE TABLE `class5_name`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type PRIMARY  KEY (`c5_at1`),);  CREATE TABLE `class2_name`(`c7_at1`c7_at1_type`c5_at1`c5_at1_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `class6_name`(`c6_at3`c6_at3_type(64)`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`),);  CREATE TABLE `class1_name`(`c1_at2`c4_at2_type(64)`c1_at1`c1_at1_type PRIMARY  KEY (`c1_at1`),);  CREATE TABLE `class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at1`c3_at2_type PRIMARY  KEY (`c3_at1`),);  CREATE TABLE `assoc5`(`c3_at1`c3_at2_type`c1_at1`c1_at1_type KEY `FK_assoc5_c3_at1_idx`(`c3_at1`) KEY `FK_assoc5_c1_at1_idx`(`c1_at1`) PRIMARY  KEY (`c3_at1`,`c1_at1`),);  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type(64)`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`),);  CREATE TABLE `assoc2`(`c6_at1`c6_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc2_c6_at1_idx`(`c6_at1`), KEY `FK_assoc2_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c6_at1`,`c3_at1`),);  CREATE TABLE `assoc3`(`c4_at1`c4_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc3_c4_at1_idx`(`c4_at1`) KEY `FK_assoc3_c3_at1_idx`(`c3_at1`) PRIMARY  KEY (`c4_at1`,`c3_at1`),);  CREATE TABLE `assoc4`(`c5_at1`c5_at1_type NOT NULL`c3_at1`c3_at2_type KEY `FK_assoc4_c5_at1_idx`(`c5_at1`) KEY `FK_assoc4_c3_at1_idx`(`c3_at1`), PRIMARY  KEY (`c5_at1`,`c3_at1`));  CREATE TABLE `assoc1`(`c6_at1`c6_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc1_c6_at1_idx`(`c6_at1`), KEY `FK_assoc1_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c6_at1`,`c4_at1`),);  CREATE TABLE `class8_name`(`c5_at1`c5_at1_type`c3_at1`c3_at2_type`c2_at1`c2_at1_type PRIMARY  KEY (`c3_at1`),); ALTER TABLE `assoc5`ADD CONSTRAINT `FK_assoc5_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c1_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE, ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE,​</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str1Mapping Strategy of Table class8_name:map_str1Mapping Strategy of Table class10_name:map_str1Association Strategy for assoc1:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at2`c7_at2_type(64)`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c10_at1`c10_at1_type`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE​</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class8_name:map_str2Mapping Strategy of Table class10_name:map_str2Association Strategy for assoc1:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str1Mapping Strategy of Table class8_name:map_str1Mapping Strategy of Table class10_name:map_str1Association Strategy for assoc4:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at2`c7_at2_type(64)`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c10_at1`c10_at1_type`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str1Mapping Strategy of Table class8_name:map_str1Mapping Strategy of Table class10_name:map_str1Association Strategy for assoc1:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at2`c7_at2_type(64)`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c10_at1`c10_at1_type`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class10_name:map_str2Mapping Strategy of Table class9_name:map_str3Association Strategy for assoc1:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class8_name`ADD CONSTRAINT `FK_class8_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE; ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class9_name`ADD CONSTRAINT `FK_class9_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `Participant`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class8_name:map_str2Mapping Strategy of Table class6_name:map_str3Association Strategy for assoc1:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class10_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_class10_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `Participant`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class8_name:map_str2Mapping Strategy of Table class6_name:map_str3Association Strategy for assoc1:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at2`c7_at2_type(64)`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c10_at1`c10_at1_type`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str1Mapping Strategy of Table class8_name:map_str1Mapping Strategy of Table class10_name:map_str1Association Strategy for assoc1:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at2`c7_at2_type(64)`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c10_at1`c10_at1_type`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class6_name:map_str3Association Strategy for assoc1:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class10_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class8_name`ADD CONSTRAINT `FK_class8_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE; ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_class10_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `Participant`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str1Mapping Strategy of Table class8_name:map_str1Mapping Strategy of Table class10_name:map_str1Association Strategy for assoc1:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at2`c7_at2_type(64)`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c10_at1`c10_at1_type`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class10_name:map_str2Association Strategy for assoc1:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class8_name`ADD CONSTRAINT `FK_class8_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE; ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class8_name:map_str2Mapping Strategy of Table class9_name:map_str3Mapping Strategy of Table class6_name:map_str3Association Strategy for assoc1:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class10_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_class10_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class9_name`ADD CONSTRAINT `FK_class9_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `Participant`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class8_name:map_str2Mapping Strategy of Table class10_name:map_str2Mapping Strategy of Table class9_name:map_str3Association Strategy for assoc1:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class9_name`ADD CONSTRAINT `FK_class9_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `Participant`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str1Mapping Strategy of Table class8_name:map_str1Mapping Strategy of Table class10_name:map_str1Association Strategy for assoc1:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at2`c7_at2_type(64)`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c10_at1`c10_at1_type`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE​​</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str1Mapping Strategy of Table class8_name:map_str1Mapping Strategy of Table class10_name:map_str1Association Strategy for assoc4:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at2`c7_at2_type(64)`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c10_at1`c10_at1_type`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE​</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str1Mapping Strategy of Table class8_name:map_str1Mapping Strategy of Table class10_name:map_str1Association Strategy for assoc4:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at2`c7_at2_type(64)`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c10_at1`c10_at1_type`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class9_name:map_str3Mapping Strategy of Table class6_name:map_str3Association Strategy for assoc1:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at2`c7_at2_type(64)`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c10_at1`c10_at1_type`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str1Mapping Strategy of Table class8_name:map_str1Mapping Strategy of Table class10_name:map_str1Association Strategy for assoc4:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at2`c7_at2_type(64)`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c10_at1`c10_at1_type`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class8_name:map_str2Mapping Strategy of Table class6_name:map_str3Association Strategy for assoc4:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class10_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_class10_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE​</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class8_name:map_str2Mapping Strategy of Table class10_name:map_str2Association Strategy for assoc1:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class10_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_class10_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE​</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str1Mapping Strategy of Table class8_name:map_str1Mapping Strategy of Table class10_name:map_str1Association Strategy for assoc4:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at2`c7_at2_type(64)`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c10_at1`c10_at1_type`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str1Mapping Strategy of Table class8_name:map_str1Mapping Strategy of Table class10_name:map_str1Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at2`c7_at2_type(64)`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c10_at1`c10_at1_type`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class8_name:map_str2Mapping Strategy of Table class10_name:map_str2Association Strategy for assoc4:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class8_name:map_str2Mapping Strategy of Table class10_name:map_str2Mapping Strategy of Table class9_name:map_str3Association Strategy for assoc4:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class9_name`ADD CONSTRAINT `FK_class9_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `Participant`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str1Mapping Strategy of Table class8_name:map_str1Mapping Strategy of Table class10_name:map_str1Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at2`c7_at2_type(64)`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c10_at1`c10_at1_type`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE​</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class9_name:map_str3Mapping Strategy of Table class6_name:map_str3Association Strategy for assoc4:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class10_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class8_name`ADD CONSTRAINT `FK_class8_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE; ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_class10_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class9_name`ADD CONSTRAINT `FK_class9_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE​​​​</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class8_name:map_str2Mapping Strategy of Table class10_name:map_str2Association Strategy for assoc1:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class9_name`ADD CONSTRAINT `FK_class9_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE​</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class8_name:map_str2Mapping Strategy of Table class10_name:map_str2Association Strategy for assoc1:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class9_name`ADD CONSTRAINT `FK_class9_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class10_name:map_str2Association Strategy for assoc1:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class8_name`ADD CONSTRAINT `FK_class8_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE; ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class8_name:map_str2Mapping Strategy of Table class10_name:map_str2Association Strategy for assoc1:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class8_name`ADD CONSTRAINT `FK_class8_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE; ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class8_name:map_str2Mapping Strategy of Table class9_name:map_str3Mapping Strategy of Table class6_name:map_str3Association Strategy for assoc4:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class10_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_class10_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class9_name`ADD CONSTRAINT `FK_class9_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE​</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class8_name:map_str2Mapping Strategy of Table class10_name:map_str2Association Strategy for assoc1:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class10_name:map_str2Mapping Strategy of Table class9_name:map_str3Association Strategy for assoc4:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class8_name`ADD CONSTRAINT `FK_class8_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE; ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class9_name`ADD CONSTRAINT `FK_class9_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class10_name:map_str2Association Strategy for assoc4:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class8_name`ADD CONSTRAINT `FK_class8_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE; ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE​</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class6_name:map_str3Association Strategy for assoc4:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class10_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class8_name`ADD CONSTRAINT `FK_class8_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE; ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_class10_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE​</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class6_name:map_str3Association Strategy for assoc1:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class10_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class8_name`ADD CONSTRAINT `FK_class8_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE; ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_class10_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class8_name:map_str2Mapping Strategy of Table class10_name:map_str2Mapping Strategy of Table class9_name:map_str3Association Strategy for assoc1:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class9_name`ADD CONSTRAINT `FK_class9_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class8_name:map_str2Mapping Strategy of Table class6_name:map_str3Association Strategy for assoc1:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class10_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_class10_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE​</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class8_name:map_str2Mapping Strategy of Table class9_name:map_str3Mapping Strategy of Table class6_name:map_str3Association Strategy for assoc1:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class10_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_class10_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class9_name`ADD CONSTRAINT `FK_class9_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class8_name:map_str2Mapping Strategy of Table class10_name:map_str2Association Strategy for assoc4:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2​,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class8_name:map_str2Mapping Strategy of Table class6_name:map_str3Association Strategy for assoc1:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class10_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_class10_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class9_name:map_str3Mapping Strategy of Table class6_name:map_str3Association Strategy for assoc1:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class10_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class8_name`ADD CONSTRAINT `FK_class8_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE; ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_class10_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class9_name`ADD CONSTRAINT `FK_class9_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class9_name:map_str3Mapping Strategy of Table class6_name:map_str3Association Strategy for assoc1:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class10_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class8_name`ADD CONSTRAINT `FK_class8_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE; ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_class10_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class10_name:map_str2Mapping Strategy of Table class9_name:map_str3Association Strategy for assoc1:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class8_name`ADD CONSTRAINT `FK_class8_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE; ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class9_name`ADD CONSTRAINT `FK_class9_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class10_name:map_str2Mapping Strategy of Table class9_name:map_str3Association Strategy for assoc1:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class8_name`ADD CONSTRAINT `FK_class8_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE; ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class9_name`ADD CONSTRAINT `FK_class9_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class9_name:map_str3Mapping Strategy of Table class6_name:map_str3Association Strategy for assoc1:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class8_name`ADD CONSTRAINT `FK_class8_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE; ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class9_name`ADD CONSTRAINT `FK_class9_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class10_name:map_str2Mapping Strategy of Table class9_name:map_str3Association Strategy for assoc4:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class8_name`ADD CONSTRAINT `FK_class8_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE; ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class9_name`ADD CONSTRAINT `FK_class9_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE​</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class8_name:map_str2Mapping Strategy of Table class10_name:map_str2Mapping Strategy of Table class9_name:map_str3Association Strategy for assoc4:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class9_name`ADD CONSTRAINT `FK_class9_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class10_name:map_str2Association Strategy for assoc1:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class8_name`ADD CONSTRAINT `FK_class8_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE; ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class8_name:map_str2Mapping Strategy of Table class10_name:map_str2Mapping Strategy of Table class9_name:map_str3Association Strategy for assoc1:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class9_name`ADD CONSTRAINT `FK_class9_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class8_name:map_str2Mapping Strategy of Table class10_name:map_str2Mapping Strategy of Table class9_name:map_str3Association Strategy for assoc1:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class10_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_class10_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class9_name`ADD CONSTRAINT `FK_class9_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE​</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class10_name:map_str2Association Strategy for assoc4:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class8_name`ADD CONSTRAINT `FK_class8_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE; ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE​</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class10_name:map_str2Mapping Strategy of Table class9_name:map_str3Association Strategy for assoc1:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class8_name`ADD CONSTRAINT `FK_class8_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE; ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class9_name`ADD CONSTRAINT `FK_class9_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class9_name:map_str3Mapping Strategy of Table class6_name:map_str3Association Strategy for assoc1:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class10_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class8_name`ADD CONSTRAINT `FK_class8_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE; ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_class10_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class9_name`ADD CONSTRAINT `FK_class9_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class10_name:map_str2Mapping Strategy of Table class9_name:map_str3Association Strategy for assoc1:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class10_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class8_name`ADD CONSTRAINT `FK_class8_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE; ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_class10_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class3_name`ADD CONSTRAINT `FK_class3_name_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class8_name:map_str2Mapping Strategy of Table class9_name:map_str3Mapping Strategy of Table class6_name:map_str3Association Strategy for assoc4:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class10_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_class10_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class9_name`ADD CONSTRAINT `FK_class9_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class8_name:map_str2Mapping Strategy of Table class6_name:map_str3Association Strategy for assoc4:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class10_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_class10_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class9_name:map_str3Mapping Strategy of Table class6_name:map_str3Association Strategy for assoc4:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class10_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class8_name`ADD CONSTRAINT `FK_class8_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE; ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_class10_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class9_name`ADD CONSTRAINT `FK_class9_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class6_name:map_str3Association Strategy for assoc4:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_type NOT NULL  KEY  `FK_class2_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class10_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class2_name`ADD CONSTRAINT `FK_class2_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class8_name`ADD CONSTRAINT `FK_class8_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE; ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_class10_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class8_name:map_str2Mapping Strategy of Table class10_name:map_str2Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class8_name:map_str2Mapping Strategy of Table class10_name:map_str2Association Strategy for assoc4:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class8_name:map_str2Mapping Strategy of Table class9_name:map_str3Mapping Strategy of Table class6_name:map_str3Association Strategy for assoc1:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc4:assoc_type1Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class9_name`ADD CONSTRAINT `FK_class9_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class8_name:map_str2Mapping Strategy of Table class9_name:map_str3Mapping Strategy of Table class6_name:map_str3Association Strategy for assoc4:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class10_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_class10_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class9_name`ADD CONSTRAINT `FK_class9_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class8_name:map_str2Mapping Strategy of Table class6_name:map_str3Association Strategy for assoc4:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class10_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_class10_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class9_name`ADD CONSTRAINT `FK_class9_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE​</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class10_name:map_str2Association Strategy for assoc4:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class8_name`ADD CONSTRAINT `FK_class8_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE; ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class10_name:map_str2Mapping Strategy of Table class9_name:map_str3Association Strategy for assoc4:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class8_name`ADD CONSTRAINT `FK_class8_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE; ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class9_name`ADD CONSTRAINT `FK_class9_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class9_name:map_str3Mapping Strategy of Table class6_name:map_str3Association Strategy for assoc4:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class10_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class8_name`ADD CONSTRAINT `FK_class8_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE; ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_class10_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class9_name`ADD CONSTRAINT `FK_class9_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class9_name:map_str3Mapping Strategy of Table class6_name:map_str3Association Strategy for assoc4:assoc_type1Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_type NOT NULL  KEY  `FK_class1_name_c5_at1_idx`(`c5_at1`), PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class10_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class8_name`ADD CONSTRAINT `FK_class8_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE; ALTER TABLE `class1_name`ADD CONSTRAINT `FK_class1_name_c5_at1`  FOREIGN  KEY  (`c5_at1`) REFERENCES `class5_name`(`c5_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_class10_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class8_name:map_str2Mapping Strategy of Table class10_name:map_str2Mapping Strategy of Table class9_name:map_str3Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class9_name`ADD CONSTRAINT `FK_class9_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class8_name:map_str2Mapping Strategy of Table class10_name:map_str2Mapping Strategy of Table class9_name:map_str3Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class9_name`ADD CONSTRAINT `FK_class9_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class8_name:map_str2Mapping Strategy of Table class9_name:map_str3Mapping Strategy of Table class6_name:map_str3Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class10_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_class10_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class9_name`ADD CONSTRAINT `FK_class9_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE​</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class8_name:map_str2Mapping Strategy of Table class6_name:map_str3Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class10_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_class10_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class8_name:map_str2Mapping Strategy of Table class6_name:map_str3Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class8_name`ADD CONSTRAINT `FK_class8_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE; ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class8_name:map_str2Mapping Strategy of Table class6_name:map_str3Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class8_name`ADD CONSTRAINT `FK_class8_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE; ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class9_name`ADD CONSTRAINT `FK_class9_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE​</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class9_name:map_str3Mapping Strategy of Table class6_name:map_str3Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2Association Strategy for assoc4:assoc_type2,USEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class10_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class8_name`ADD CONSTRAINT `FK_class8_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE; ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_class10_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class9_name`ADD CONSTRAINT `FK_class9_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE​</t>
+  </si>
+  <si>
+    <t>module OM_name:0 open Declaration one sig class1_name  extends  Class attr Set=c1_at1+c1_at2id=c1_at1 no parent is Abstract=No} one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name  extends  Class attr Set=c2_at1+c2_at2id=c2_at1 no parent is Abstract=No} one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name  extends  Class attr Set=c3_at1+c3_at2id=c3_at1 no parent is Abstract=No} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name  extends  Class attr Set=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1 no parent is Abstract=No} one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name  extends  Class attr Set=c5_at1+c5_at2 one parent parent in class4_nameid=c4_at1isAbstract=No} one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name  extends  Class attr Set=c6_at1+c6_at2+c6_at3id=c6_at1 no parent is Abstract=No} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1  extends  Association src=class6_namedst=class4_name src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc} one sig assoc2  extends  Association src=class1_namedst=class5_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc3  extends  Association src=class4_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} one sig assoc4  extends  Association src=class3_namedst=class1_name src_multiplicity=src_mlpc dst_multiplicity=dst_mlpc} pred show run show for30​,Mapping Strategy of Table class4_name:map_str2Mapping Strategy of Table class5_name:map_str2Mapping Strategy of Table class7_name:map_str2Mapping Strategy of Table class6_name:map_str3Association Strategy for assoc1:assoc_type2Association Strategy for assoc2:assoc_type2Association Strategy for assoc3:assoc_type2Association Strategy for assoc4:assoc_type2Association Strategy for assoc4:assoc_type2,UUSEOM_name_0  CREATE TABLE `assoc2`(`c7_at1`c7_at1_type NOT NULL`c4_at1`c4_at1_type NOT NULL  KEY  `FK_assoc2_c7_at1_idx`(`c7_at1`) KEY `FK_assoc2_c4_at1_idx`(`c4_at1`) PRIMARY  KEY (`c7_at1`,`c4_at1`));  CREATE TABLE `class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_type NOT NULL PRIMARY  KEY (`c2_at1`));  CREATE TABLE `class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc5`(`c6_at1`c6_at1_type NOT NULL`c1_at1`c1_at1_type NOT NULL  KEY  `FK_assoc5_c6_at1_idx`(`c6_at1`), KEY `FK_assoc5_c1_at1_idx`(`c1_at1`), PRIMARY  KEY (`c5_at1`,`c1_at1`));  CREATE TABLE `class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_type NOT NULL PRIMARY  KEY (`c1_at1`));  CREATE TABLE `class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_type NOT NULL  KEY  `FK_class10_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `assoc1`(`c3_at1`c3_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc1_c3_at1_idx`(`c3_at1`), KEY `FK_assoc1_c2_at1_idx`(`c2_at1`), PRIMARY  KEY (`c3_at1`,`c2_at1`));  CREATE TABLE `class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_type NOT NULL PRIMARY  KEY (`c4_at1`));  CREATE TABLE `class7_name`(`c7_at1`c7_at1_type NOT NULL PRIMARY  KEY (`c7_at1`));  CREATE TABLE `class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_type NOT NULL PRIMARY  KEY (`c6_at1`));  CREATE TABLE `class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_type NOT NULL PRIMARY  KEY (`c3_at1`));  CREATE TABLE `assoc4`(`c6_at1`c6_at1_type NOT NULL`c2_at1`c2_at1_type NOT NULL  KEY  `FK_assoc4_c6_at1_idx`(`c6_at1`) KEY `FK_assoc4_c2_at1_idx`(`c2_at1`) PRIMARY  KEY (`c6_at1`,`c2_at1`));  CREATE TABLE `assoc3`(`c7_at1`c7_at1_type NOT NULL`c6_at1`c6_at1_type NOT NULL  KEY  `FK_assoc3_c7_at1_idx`(`c7_at1`), KEY `FK_assoc3_c6_at1_idx`(`c6_at1`), PRIMARY  KEY (`c7_at1`,`c6_at1`)); ALTER TABLE `assoc2`ADD CONSTRAINT `FK_assoc2_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1`  FOREIGN  KEY  (`c4_at1`) REFERENCES `class4_name`(`c4_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class8_name`ADD CONSTRAINT `FK_class8_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE; ALTER TABLE `class10_name`ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1`  FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `class10_name`ADD CONSTRAINT `FK_class10_name_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc1`ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc4`ADD CONSTRAINT `FK_assoc4_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1`  FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ALTER TABLE `assoc3`ADD CONSTRAINT `FK_assoc3_c7_at1`  FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`) ON DELETE CASCADE  ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1`  FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`) ON DELETE CASCADE  ON UPDATE CASCADE</t>
+  </si>
+  <si>
     <t>OM_Prediction</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str1MappingStrategyofTableclass8_name:map_str1MappingStrategyofTableclass10_name:map_str1AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at2`c7_at2_type(64)`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c10_at1`c10_at1_type`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeKEY`FK_class3_name_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE​</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass8_name:map_str2MappingStrategyofTableclass10_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeKEY`FK_class3_name_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str1MappingStrategyofTableclass8_name:map_str1MappingStrategyofTableclass10_name:map_str1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at2`c7_at2_type(64)`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c10_at1`c10_at1_type`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str1MappingStrategyofTableclass8_name:map_str1MappingStrategyofTableclass10_name:map_str1AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at2`c7_at2_type(64)`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c10_at1`c10_at1_type`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeKEY`FK_class3_name_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass10_name:map_str2MappingStrategyofTableclass9_name:map_str3AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLKEY`FK_class8_name_c7_at1_idx`(`c7_at1`)PRIMARYKEY(`c7_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class9_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeKEY`FK_class3_name_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class8_name`ADDCONSTRAINT`FK_class8_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class9_name`ADDCONSTRAINT`FK_class9_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`Participant`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass8_name:map_str2MappingStrategyofTableclass6_name:map_str3AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class10_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeKEY`FK_class3_name_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_class10_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`Participant`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass8_name:map_str2MappingStrategyofTableclass6_name:map_str3AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at2`c7_at2_type(64)`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c10_at1`c10_at1_type`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str1MappingStrategyofTableclass8_name:map_str1MappingStrategyofTableclass10_name:map_str1AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at2`c7_at2_type(64)`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c10_at1`c10_at1_type`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeKEY`FK_class3_name_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass6_name:map_str3AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLKEY`FK_class8_name_c7_at1_idx`(`c7_at1`)PRIMARYKEY(`c7_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class10_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeKEY`FK_class3_name_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class8_name`ADDCONSTRAINT`FK_class8_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_class10_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`Participant`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str1MappingStrategyofTableclass8_name:map_str1MappingStrategyofTableclass10_name:map_str1AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at2`c7_at2_type(64)`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c10_at1`c10_at1_type`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeKEY`FK_class3_name_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass10_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLKEY`FK_class8_name_c7_at1_idx`(`c7_at1`)PRIMARYKEY(`c7_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeKEY`FK_class3_name_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class8_name`ADDCONSTRAINT`FK_class8_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass8_name:map_str2MappingStrategyofTableclass9_name:map_str3MappingStrategyofTableclass6_name:map_str3AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class10_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class9_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeKEY`FK_class3_name_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_class10_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class9_name`ADDCONSTRAINT`FK_class9_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`Participant`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass8_name:map_str2MappingStrategyofTableclass10_name:map_str2MappingStrategyofTableclass9_name:map_str3AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class9_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeKEY`FK_class3_name_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class9_name`ADDCONSTRAINT`FK_class9_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`Participant`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str1MappingStrategyofTableclass8_name:map_str1MappingStrategyofTableclass10_name:map_str1AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at2`c7_at2_type(64)`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c10_at1`c10_at1_type`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeKEY`FK_class3_name_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE​​</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str1MappingStrategyofTableclass8_name:map_str1MappingStrategyofTableclass10_name:map_str1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at2`c7_at2_type(64)`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c10_at1`c10_at1_type`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE​</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str1MappingStrategyofTableclass8_name:map_str1MappingStrategyofTableclass10_name:map_str1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at2`c7_at2_type(64)`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c10_at1`c10_at1_type`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass9_name:map_str3MappingStrategyofTableclass6_name:map_str3AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at2`c7_at2_type(64)`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c10_at1`c10_at1_type`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str1MappingStrategyofTableclass8_name:map_str1MappingStrategyofTableclass10_name:map_str1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at2`c7_at2_type(64)`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c10_at1`c10_at1_type`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeKEY`FK_class3_name_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass8_name:map_str2MappingStrategyofTableclass6_name:map_str3AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class10_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_class10_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE​</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass8_name:map_str2MappingStrategyofTableclass10_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class10_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_class10_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE​</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str1MappingStrategyofTableclass8_name:map_str1MappingStrategyofTableclass10_name:map_str1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at2`c7_at2_type(64)`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c10_at1`c10_at1_type`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str1MappingStrategyofTableclass8_name:map_str1MappingStrategyofTableclass10_name:map_str1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at2`c7_at2_type(64)`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c10_at1`c10_at1_type`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass8_name:map_str2MappingStrategyofTableclass10_name:map_str2AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass8_name:map_str2MappingStrategyofTableclass10_name:map_str2MappingStrategyofTableclass9_name:map_str3AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class9_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class9_name`ADDCONSTRAINT`FK_class9_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`Participant`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str1MappingStrategyofTableclass8_name:map_str1MappingStrategyofTableclass10_name:map_str1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at2`c7_at2_type(64)`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c10_at1`c10_at1_type`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE​</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass9_name:map_str3MappingStrategyofTableclass6_name:map_str3AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLKEY`FK_class8_name_c7_at1_idx`(`c7_at1`)PRIMARYKEY(`c7_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class10_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class9_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class8_name`ADDCONSTRAINT`FK_class8_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_class10_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class9_name`ADDCONSTRAINT`FK_class9_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE​​​​</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass8_name:map_str2MappingStrategyofTableclass10_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class9_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeKEY`FK_class3_name_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class9_name`ADDCONSTRAINT`FK_class9_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE​</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass8_name:map_str2MappingStrategyofTableclass10_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class9_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeKEY`FK_class3_name_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class9_name`ADDCONSTRAINT`FK_class9_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass10_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLKEY`FK_class8_name_c7_at1_idx`(`c7_at1`)PRIMARYKEY(`c7_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeKEY`FK_class3_name_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class8_name`ADDCONSTRAINT`FK_class8_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass8_name:map_str2MappingStrategyofTableclass10_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLKEY`FK_class8_name_c7_at1_idx`(`c7_at1`)PRIMARYKEY(`c7_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeKEY`FK_class3_name_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class8_name`ADDCONSTRAINT`FK_class8_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass8_name:map_str2MappingStrategyofTableclass9_name:map_str3MappingStrategyofTableclass6_name:map_str3AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class10_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class9_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_class10_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class9_name`ADDCONSTRAINT`FK_class9_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE​</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass8_name:map_str2MappingStrategyofTableclass10_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeKEY`FK_class3_name_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass10_name:map_str2MappingStrategyofTableclass9_name:map_str3AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLKEY`FK_class8_name_c7_at1_idx`(`c7_at1`)PRIMARYKEY(`c7_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class9_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class8_name`ADDCONSTRAINT`FK_class8_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class9_name`ADDCONSTRAINT`FK_class9_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass10_name:map_str2AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLKEY`FK_class8_name_c7_at1_idx`(`c7_at1`)PRIMARYKEY(`c7_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class8_name`ADDCONSTRAINT`FK_class8_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE​</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass6_name:map_str3AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLKEY`FK_class8_name_c7_at1_idx`(`c7_at1`)PRIMARYKEY(`c7_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class10_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class8_name`ADDCONSTRAINT`FK_class8_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_class10_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE​</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass6_name:map_str3AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLKEY`FK_class8_name_c7_at1_idx`(`c7_at1`)PRIMARYKEY(`c7_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class10_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeKEY`FK_class3_name_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class8_name`ADDCONSTRAINT`FK_class8_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_class10_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass8_name:map_str2MappingStrategyofTableclass10_name:map_str2MappingStrategyofTableclass9_name:map_str3AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class9_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeKEY`FK_class3_name_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class9_name`ADDCONSTRAINT`FK_class9_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass8_name:map_str2MappingStrategyofTableclass6_name:map_str3AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class10_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeKEY`FK_class3_name_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_class10_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE​</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass8_name:map_str2MappingStrategyofTableclass9_name:map_str3MappingStrategyofTableclass6_name:map_str3AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class10_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class9_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeKEY`FK_class3_name_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_class10_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class9_name`ADDCONSTRAINT`FK_class9_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass8_name:map_str2MappingStrategyofTableclass10_name:map_str2AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2​,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass8_name:map_str2MappingStrategyofTableclass6_name:map_str3AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class10_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeKEY`FK_class3_name_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_class10_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass9_name:map_str3MappingStrategyofTableclass6_name:map_str3AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLKEY`FK_class8_name_c7_at1_idx`(`c7_at1`)PRIMARYKEY(`c7_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class10_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class9_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeKEY`FK_class3_name_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class8_name`ADDCONSTRAINT`FK_class8_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_class10_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class9_name`ADDCONSTRAINT`FK_class9_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass9_name:map_str3MappingStrategyofTableclass6_name:map_str3AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLKEY`FK_class8_name_c7_at1_idx`(`c7_at1`)PRIMARYKEY(`c7_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class10_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeKEY`FK_class3_name_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class8_name`ADDCONSTRAINT`FK_class8_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_class10_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass10_name:map_str2MappingStrategyofTableclass9_name:map_str3AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLKEY`FK_class8_name_c7_at1_idx`(`c7_at1`)PRIMARYKEY(`c7_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class9_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeKEY`FK_class3_name_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class8_name`ADDCONSTRAINT`FK_class8_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class9_name`ADDCONSTRAINT`FK_class9_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass10_name:map_str2MappingStrategyofTableclass9_name:map_str3AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLKEY`FK_class8_name_c7_at1_idx`(`c7_at1`)PRIMARYKEY(`c7_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class9_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeKEY`FK_class3_name_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class8_name`ADDCONSTRAINT`FK_class8_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class9_name`ADDCONSTRAINT`FK_class9_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass9_name:map_str3MappingStrategyofTableclass6_name:map_str3AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLKEY`FK_class8_name_c7_at1_idx`(`c7_at1`)PRIMARYKEY(`c7_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class9_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeKEY`FK_class3_name_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class8_name`ADDCONSTRAINT`FK_class8_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class9_name`ADDCONSTRAINT`FK_class9_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass10_name:map_str2MappingStrategyofTableclass9_name:map_str3AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLKEY`FK_class8_name_c7_at1_idx`(`c7_at1`)PRIMARYKEY(`c7_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class9_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class8_name`ADDCONSTRAINT`FK_class8_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class9_name`ADDCONSTRAINT`FK_class9_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE​</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass8_name:map_str2MappingStrategyofTableclass10_name:map_str2MappingStrategyofTableclass9_name:map_str3AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class9_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class9_name`ADDCONSTRAINT`FK_class9_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass10_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLKEY`FK_class8_name_c7_at1_idx`(`c7_at1`)PRIMARYKEY(`c7_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeKEY`FK_class3_name_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class8_name`ADDCONSTRAINT`FK_class8_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass8_name:map_str2MappingStrategyofTableclass10_name:map_str2MappingStrategyofTableclass9_name:map_str3AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class9_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeKEY`FK_class3_name_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class9_name`ADDCONSTRAINT`FK_class9_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass8_name:map_str2MappingStrategyofTableclass10_name:map_str2MappingStrategyofTableclass9_name:map_str3AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class10_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class9_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeKEY`FK_class3_name_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_class10_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class9_name`ADDCONSTRAINT`FK_class9_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE​</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass10_name:map_str2AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLKEY`FK_class8_name_c7_at1_idx`(`c7_at1`)PRIMARYKEY(`c7_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class8_name`ADDCONSTRAINT`FK_class8_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE​</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass10_name:map_str2MappingStrategyofTableclass9_name:map_str3AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLKEY`FK_class8_name_c7_at1_idx`(`c7_at1`)PRIMARYKEY(`c7_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class9_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeKEY`FK_class3_name_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class8_name`ADDCONSTRAINT`FK_class8_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class9_name`ADDCONSTRAINT`FK_class9_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass9_name:map_str3MappingStrategyofTableclass6_name:map_str3AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLKEY`FK_class8_name_c7_at1_idx`(`c7_at1`)PRIMARYKEY(`c7_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class10_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class9_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeKEY`FK_class3_name_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class8_name`ADDCONSTRAINT`FK_class8_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_class10_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class9_name`ADDCONSTRAINT`FK_class9_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass10_name:map_str2MappingStrategyofTableclass9_name:map_str3AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLKEY`FK_class8_name_c7_at1_idx`(`c7_at1`)PRIMARYKEY(`c7_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class10_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeKEY`FK_class3_name_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class8_name`ADDCONSTRAINT`FK_class8_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_class10_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass8_name:map_str2MappingStrategyofTableclass9_name:map_str3MappingStrategyofTableclass6_name:map_str3AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class10_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class9_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_class10_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class9_name`ADDCONSTRAINT`FK_class9_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass8_name:map_str2MappingStrategyofTableclass6_name:map_str3AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class10_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_class10_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass9_name:map_str3MappingStrategyofTableclass6_name:map_str3AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLKEY`FK_class8_name_c7_at1_idx`(`c7_at1`)PRIMARYKEY(`c7_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class10_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class9_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class8_name`ADDCONSTRAINT`FK_class8_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_class10_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class9_name`ADDCONSTRAINT`FK_class9_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass6_name:map_str3AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c5_at1`c5_at1_type`c2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLKEY`FK_class8_name_c7_at1_idx`(`c7_at1`)PRIMARYKEY(`c7_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class10_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class8_name`ADDCONSTRAINT`FK_class8_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_class10_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass8_name:map_str2MappingStrategyofTableclass10_name:map_str2AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass8_name:map_str2MappingStrategyofTableclass10_name:map_str2AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass8_name:map_str2MappingStrategyofTableclass9_name:map_str3MappingStrategyofTableclass6_name:map_str3AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class9_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class9_name`ADDCONSTRAINT`FK_class9_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass8_name:map_str2MappingStrategyofTableclass9_name:map_str3MappingStrategyofTableclass6_name:map_str3AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class10_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class9_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_class10_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class9_name`ADDCONSTRAINT`FK_class9_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass8_name:map_str2MappingStrategyofTableclass6_name:map_str3AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class10_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class9_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_class10_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class9_name`ADDCONSTRAINT`FK_class9_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE​</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass10_name:map_str2AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLKEY`FK_class8_name_c7_at1_idx`(`c7_at1`)PRIMARYKEY(`c7_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class8_name`ADDCONSTRAINT`FK_class8_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass10_name:map_str2MappingStrategyofTableclass9_name:map_str3AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLKEY`FK_class8_name_c7_at1_idx`(`c7_at1`)PRIMARYKEY(`c7_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class9_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class8_name`ADDCONSTRAINT`FK_class8_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class9_name`ADDCONSTRAINT`FK_class9_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass9_name:map_str3MappingStrategyofTableclass6_name:map_str3AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLKEY`FK_class8_name_c7_at1_idx`(`c7_at1`)PRIMARYKEY(`c7_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class10_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class9_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class8_name`ADDCONSTRAINT`FK_class8_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_class10_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class9_name`ADDCONSTRAINT`FK_class9_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass9_name:map_str3MappingStrategyofTableclass6_name:map_str3AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLKEY`FK_class8_name_c7_at1_idx`(`c7_at1`)PRIMARYKEY(`c7_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c5_at1`c5_at1_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_class1_name_c5_at1_idx`(`c5_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class10_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class8_name`ADDCONSTRAINT`FK_class8_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_class10_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass8_name:map_str2MappingStrategyofTableclass10_name:map_str2MappingStrategyofTableclass9_name:map_str3AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class9_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class9_name`ADDCONSTRAINT`FK_class9_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass8_name:map_str2MappingStrategyofTableclass10_name:map_str2MappingStrategyofTableclass9_name:map_str3AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class9_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class9_name`ADDCONSTRAINT`FK_class9_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass8_name:map_str2MappingStrategyofTableclass9_name:map_str3MappingStrategyofTableclass6_name:map_str3AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class10_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class9_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_class10_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class9_name`ADDCONSTRAINT`FK_class9_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE​</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass8_name:map_str2MappingStrategyofTableclass6_name:map_str3AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class10_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_class10_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass8_name:map_str2MappingStrategyofTableclass6_name:map_str3AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLKEY`FK_class8_name_c7_at1_idx`(`c7_at1`)PRIMARYKEY(`c7_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class8_name`ADDCONSTRAINT`FK_class8_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass8_name:map_str2MappingStrategyofTableclass6_name:map_str3AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLKEY`FK_class8_name_c7_at1_idx`(`c7_at1`)PRIMARYKEY(`c7_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class9_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class8_name`ADDCONSTRAINT`FK_class8_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class9_name`ADDCONSTRAINT`FK_class9_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE​</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass9_name:map_str3MappingStrategyofTableclass6_name:map_str3AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLKEY`FK_class8_name_c7_at1_idx`(`c7_at1`)PRIMARYKEY(`c7_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class10_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class9_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class8_name`ADDCONSTRAINT`FK_class8_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_class10_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class9_name`ADDCONSTRAINT`FK_class9_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE​</t>
-  </si>
-  <si>
-    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass7_name:map_str2MappingStrategyofTableclass6_name:map_str3AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc4:assoc_type2,UUSEOM_name_0CREATETABLE`assoc2`(`c7_at1`c7_at1_typeNOTNULL`c4_at1`c4_at1_typeNOTNULLKEY`FK_assoc2_c7_at1_idx`(`c7_at1`)KEY`FK_assoc2_c4_at1_idx`(`c4_at1`)PRIMARYKEY(`c7_at1`,`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c2_at1`));CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64),`c8_at1`c8_at1_type(64),`c7_at1`c7_at1_typeNOTNULLKEY`FK_class8_name_c7_at1_idx`(`c7_at1`)PRIMARYKEY(`c7_at1`));CREATETABLE`assoc5`(`c6_at1`c6_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc5_c6_at1_idx`(`c6_at1`),KEY`FK_assoc5_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));CREATETABLE`class1_name`(`c1_at2`c1_at2_type`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`));CREATETABLE`class10_name`(`c10_at1`c10_at1_type`c7_at1`c7_at1_typeNOTNULLKEY`FK_class10_name_c7_at1_idx`(`c7_at1`),PRIMARYKEY(`c7_at1`));CREATETABLE`class9_name`(`c9_at1`c9_at1_type`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`assoc1`(`c3_at1`c3_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c3_at1_idx`(`c3_at1`),KEY`FK_assoc1_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type`c4_at1`c4_at1_typeNOTNULLPRIMARYKEY(`c4_at1`));CREATETABLE`class7_name`(`c7_at1`c7_at1_typeNOTNULLPRIMARYKEY(`c7_at1`));CREATETABLE`class6_name`(`c6_at2`c6_at2_type(64)`c6_at1`c6_at1_typeNOTNULLPRIMARYKEY(`c6_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULLPRIMARYKEY(`c3_at1`));CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc4_c6_at1_idx`(`c6_at1`)KEY`FK_assoc4_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c6_at1`,`c2_at1`));CREATETABLE`assoc3`(`c7_at1`c7_at1_typeNOTNULL`c6_at1`c6_at1_typeNOTNULLKEY`FK_assoc3_c7_at1_idx`(`c7_at1`),KEY`FK_assoc3_c6_at1_idx`(`c6_at1`),PRIMARYKEY(`c7_at1`,`c6_at1`));ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class8_name`ADDCONSTRAINT`FK_class8_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class10_name`ADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`class10_name`ADDCONSTRAINT`FK_class10_name_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c3_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c7_at1`FOREIGNKEY(`c7_at1`)REFERENCES`class7_name`(`c7_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE</t>
   </si>
 </sst>
 </file>
@@ -720,27 +720,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC25649-7E87-1549-8AEF-1D6A900F91D9}">
   <dimension ref="A1:B112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="104" customWidth="1"/>
+    <col min="1" max="1" width="151" customWidth="1"/>
     <col min="2" max="2" width="69.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -900,7 +900,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
@@ -940,7 +940,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
@@ -956,7 +956,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="2">
         <v>0</v>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="2">
         <v>0</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" s="2">
         <v>0</v>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" s="2">
         <v>0</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" s="2">
         <v>0</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" s="2">
         <v>0</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B45" s="2">
         <v>0</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B46" s="2">
         <v>0</v>
@@ -1100,7 +1100,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B47" s="2">
         <v>0</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48" s="2">
         <v>0</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" s="2">
         <v>0</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51" s="2">
         <v>0</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52" s="2">
         <v>0</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53" s="2">
         <v>0</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B54" s="2">
         <v>0</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B55" s="1">
         <v>1</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B56" s="1">
         <v>1</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B57" s="2">
         <v>0</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B58" s="1">
         <v>1</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B59" s="1">
         <v>1</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B60" s="1">
         <v>1</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B61" s="2">
         <v>0</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B62" s="2">
         <v>0</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B63" s="2">
         <v>0</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B64" s="2">
         <v>0</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B65" s="2">
         <v>0</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B66" s="2">
         <v>0</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B67" s="2">
         <v>0</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B68" s="2">
         <v>0</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B69" s="2">
         <v>0</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B70" s="2">
         <v>0</v>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B71" s="2">
         <v>0</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B72" s="2">
         <v>0</v>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B73" s="2">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B74" s="2">
         <v>0</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B75" s="2">
         <v>0</v>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B76" s="2">
         <v>0</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B77" s="2">
         <v>0</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B78" s="2">
         <v>0</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B79" s="2">
         <v>0</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B80" s="2">
         <v>0</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B81" s="2">
         <v>0</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B82" s="2">
         <v>0</v>
@@ -1388,7 +1388,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B83" s="2">
         <v>0</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B84" s="2">
         <v>0</v>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B85" s="2">
         <v>0</v>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B86" s="1">
         <v>1</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B87" s="2">
         <v>0</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B88" s="2">
         <v>0</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B89" s="2">
         <v>0</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B90" s="2">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B91" s="2">
         <v>0</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B92" s="2">
         <v>0</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B93" s="2">
         <v>0</v>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B94" s="1">
         <v>1</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B95" s="2">
         <v>0</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B96" s="1">
         <v>1</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B97" s="2">
         <v>0</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B98" s="2">
         <v>0</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B99" s="2">
         <v>0</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B100" s="2">
         <v>0</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B101" s="2">
         <v>0</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B102" s="2">
         <v>0</v>
@@ -1548,7 +1548,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B103" s="2">
         <v>0</v>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B104" s="2">
         <v>0</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B105" s="1">
         <v>1</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B106" s="2">
         <v>0</v>
@@ -1580,7 +1580,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B107" s="2">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B108" s="2">
         <v>0</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B109" s="2">
         <v>0</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B110" s="2">
         <v>0</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B111" s="2">
         <v>0</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B112" s="2">
         <v>0</v>
